--- a/cardapio_tms.xlsx
+++ b/cardapio_tms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E89BB368-EB22-4799-9BC1-49BF72C3CB91}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3413E950-2366-4A29-AB8C-E5F034F2342E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="778">
   <si>
     <t>Marca</t>
   </si>
@@ -7470,9 +7470,6 @@
   </si>
   <si>
     <t>6.4"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung </t>
   </si>
   <si>
     <t>6.55"</t>
@@ -7783,6 +7780,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8110,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N160" sqref="N160"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8592,7 +8593,7 @@
         <v>618</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>607</v>
@@ -8704,7 +8705,7 @@
         <v>621</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>333</v>
@@ -8760,7 +8761,7 @@
         <v>660</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>661</v>
@@ -8816,7 +8817,7 @@
         <v>666</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>667</v>
@@ -8872,7 +8873,7 @@
         <v>663</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>358</v>
@@ -8984,7 +8985,7 @@
         <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>121</v>
@@ -11504,7 +11505,7 @@
         <v>19</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>20</v>
@@ -11840,7 +11841,7 @@
         <v>30</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>31</v>
@@ -12447,7 +12448,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>753</v>
+        <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>379</v>
@@ -12624,7 +12625,7 @@
         <v>95</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>96</v>
@@ -12848,7 +12849,7 @@
         <v>177</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>145</v>
@@ -13072,7 +13073,7 @@
         <v>59</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>38</v>
@@ -13296,7 +13297,7 @@
         <v>151</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>152</v>
@@ -14188,7 +14189,7 @@
         <v>116</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>110</v>
@@ -14406,10 +14407,10 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
+        <v>771</v>
+      </c>
+      <c r="C113" t="s">
         <v>772</v>
-      </c>
-      <c r="C113" t="s">
-        <v>773</v>
       </c>
       <c r="D113" t="s">
         <v>749</v>
@@ -14430,7 +14431,7 @@
         <v>182</v>
       </c>
       <c r="J113" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K113" t="s">
         <v>41</v>
@@ -14468,7 +14469,7 @@
         <v>187</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>188</v>
@@ -14524,7 +14525,7 @@
         <v>268</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>269</v>
@@ -14580,7 +14581,7 @@
         <v>332</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>333</v>
@@ -14636,7 +14637,7 @@
         <v>79</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>80</v>
@@ -14686,13 +14687,13 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
+        <v>774</v>
+      </c>
+      <c r="C118" t="s">
         <v>775</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>776</v>
-      </c>
-      <c r="D118" t="s">
-        <v>777</v>
       </c>
       <c r="E118" t="s">
         <v>403</v>
@@ -14713,7 +14714,7 @@
         <v>397</v>
       </c>
       <c r="K118" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L118" t="s">
         <v>82</v>
@@ -14804,7 +14805,7 @@
         <v>416</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>409</v>
@@ -14972,7 +14973,7 @@
         <v>430</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>426</v>
@@ -15196,7 +15197,7 @@
         <v>443</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>439</v>
@@ -15812,7 +15813,7 @@
         <v>421</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>409</v>
@@ -15868,7 +15869,7 @@
         <v>449</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>439</v>
@@ -16260,7 +16261,7 @@
         <v>495</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>211</v>
@@ -17996,7 +17997,7 @@
         <v>603</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>604</v>
@@ -18494,16 +18495,16 @@
         <v>471</v>
       </c>
       <c r="B186" t="s">
+        <v>768</v>
+      </c>
+      <c r="C186" t="s">
         <v>769</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
+        <v>755</v>
+      </c>
+      <c r="E186" t="s">
         <v>770</v>
-      </c>
-      <c r="D186" t="s">
-        <v>756</v>
-      </c>
-      <c r="E186" t="s">
-        <v>771</v>
       </c>
       <c r="F186" t="s">
         <v>167</v>
@@ -18612,7 +18613,7 @@
         <v>544</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>185</v>
@@ -18724,7 +18725,7 @@
         <v>484</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>474</v>
@@ -19004,7 +19005,7 @@
         <v>473</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>474</v>
@@ -19060,7 +19061,7 @@
         <v>477</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>86</v>
@@ -19228,7 +19229,7 @@
         <v>670</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>671</v>
@@ -19284,7 +19285,7 @@
         <v>674</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>333</v>

--- a/cardapio_tms.xlsx
+++ b/cardapio_tms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20219215-A6C0-4E31-A985-2B2D422883A7}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B2E9B30-AB68-4E00-A4EC-5666682FA94D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="819">
   <si>
     <t>Marca</t>
   </si>
@@ -7545,9 +7545,6 @@
   </si>
   <si>
     <t>4MP</t>
-  </si>
-  <si>
-    <t>Samsug</t>
   </si>
   <si>
     <t>Galaxy A06</t>
@@ -7810,79 +7807,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4F4F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4F4F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4F4F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -7912,7 +7837,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF002060"/>
+        <color rgb="FFFF4F4F"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -7920,7 +7845,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF4F4F"/>
+        <color rgb="FF002060"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -7980,8 +7905,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="C1:C268"/>
@@ -7993,7 +7922,7 @@
     <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -8309,8 +8238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F215" sqref="F215"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9569,19 +9498,19 @@
         <v>406</v>
       </c>
       <c r="B23" t="s">
+        <v>781</v>
+      </c>
+      <c r="C23" t="s">
         <v>782</v>
-      </c>
-      <c r="C23" t="s">
-        <v>783</v>
       </c>
       <c r="D23" t="s">
         <v>751</v>
       </c>
       <c r="E23" t="s">
+        <v>783</v>
+      </c>
+      <c r="F23" t="s">
         <v>784</v>
-      </c>
-      <c r="F23" t="s">
-        <v>785</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -9602,7 +9531,7 @@
         <v>82</v>
       </c>
       <c r="M23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N23">
         <v>3561</v>
@@ -9611,7 +9540,7 @@
         <v>2024</v>
       </c>
       <c r="P23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q23" t="s">
         <v>390</v>
@@ -9625,19 +9554,19 @@
         <v>406</v>
       </c>
       <c r="B24" t="s">
+        <v>787</v>
+      </c>
+      <c r="C24" t="s">
         <v>788</v>
-      </c>
-      <c r="C24" t="s">
-        <v>789</v>
       </c>
       <c r="D24" t="s">
         <v>749</v>
       </c>
       <c r="E24" t="s">
+        <v>783</v>
+      </c>
+      <c r="F24" t="s">
         <v>784</v>
-      </c>
-      <c r="F24" t="s">
-        <v>785</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -9658,7 +9587,7 @@
         <v>82</v>
       </c>
       <c r="M24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N24">
         <v>4674</v>
@@ -9667,7 +9596,7 @@
         <v>2024</v>
       </c>
       <c r="P24" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q24" t="s">
         <v>390</v>
@@ -9681,19 +9610,19 @@
         <v>406</v>
       </c>
       <c r="B25" t="s">
+        <v>789</v>
+      </c>
+      <c r="C25" t="s">
         <v>790</v>
-      </c>
-      <c r="C25" t="s">
-        <v>791</v>
       </c>
       <c r="D25" t="s">
         <v>761</v>
       </c>
       <c r="E25" t="s">
+        <v>791</v>
+      </c>
+      <c r="F25" t="s">
         <v>792</v>
-      </c>
-      <c r="F25" t="s">
-        <v>793</v>
       </c>
       <c r="G25">
         <v>8</v>
@@ -9705,7 +9634,7 @@
         <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K25" t="s">
         <v>355</v>
@@ -9714,7 +9643,7 @@
         <v>82</v>
       </c>
       <c r="M25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N25">
         <v>3582</v>
@@ -9723,7 +9652,7 @@
         <v>2024</v>
       </c>
       <c r="P25" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q25" t="s">
         <v>390</v>
@@ -9737,19 +9666,19 @@
         <v>406</v>
       </c>
       <c r="B26" t="s">
+        <v>794</v>
+      </c>
+      <c r="C26" t="s">
         <v>795</v>
-      </c>
-      <c r="C26" t="s">
-        <v>796</v>
       </c>
       <c r="D26" t="s">
         <v>754</v>
       </c>
       <c r="E26" t="s">
+        <v>791</v>
+      </c>
+      <c r="F26" t="s">
         <v>792</v>
-      </c>
-      <c r="F26" t="s">
-        <v>793</v>
       </c>
       <c r="G26">
         <v>8</v>
@@ -9761,7 +9690,7 @@
         <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K26" t="s">
         <v>355</v>
@@ -9770,7 +9699,7 @@
         <v>82</v>
       </c>
       <c r="M26" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N26">
         <v>4685</v>
@@ -9779,7 +9708,7 @@
         <v>2024</v>
       </c>
       <c r="P26" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q26" t="s">
         <v>390</v>
@@ -10462,13 +10391,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
         <v>778</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>779</v>
-      </c>
-      <c r="C39" t="s">
-        <v>780</v>
       </c>
       <c r="D39" t="s">
         <v>749</v>
@@ -10498,7 +10427,7 @@
         <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="N39">
         <v>5000</v>
@@ -19589,16 +19518,16 @@
         <v>471</v>
       </c>
       <c r="B202" t="s">
+        <v>816</v>
+      </c>
+      <c r="C202" t="s">
         <v>817</v>
-      </c>
-      <c r="C202" t="s">
-        <v>818</v>
       </c>
       <c r="D202" t="s">
         <v>749</v>
       </c>
       <c r="E202" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F202" t="s">
         <v>612</v>
@@ -19613,7 +19542,7 @@
         <v>182</v>
       </c>
       <c r="J202" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K202" t="s">
         <v>717</v>
@@ -19645,16 +19574,16 @@
         <v>471</v>
       </c>
       <c r="B203" t="s">
+        <v>809</v>
+      </c>
+      <c r="C203" t="s">
         <v>810</v>
-      </c>
-      <c r="C203" t="s">
-        <v>811</v>
       </c>
       <c r="D203" t="s">
         <v>749</v>
       </c>
       <c r="E203" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F203" t="s">
         <v>689</v>
@@ -19669,7 +19598,7 @@
         <v>182</v>
       </c>
       <c r="J203" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K203" t="s">
         <v>717</v>
@@ -19701,10 +19630,10 @@
         <v>471</v>
       </c>
       <c r="B204" t="s">
+        <v>806</v>
+      </c>
+      <c r="C204" t="s">
         <v>807</v>
-      </c>
-      <c r="C204" t="s">
-        <v>808</v>
       </c>
       <c r="D204" t="s">
         <v>749</v>
@@ -19725,7 +19654,7 @@
         <v>182</v>
       </c>
       <c r="J204" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="K204" t="s">
         <v>88</v>
@@ -19757,19 +19686,19 @@
         <v>471</v>
       </c>
       <c r="B205" t="s">
+        <v>796</v>
+      </c>
+      <c r="C205" t="s">
         <v>797</v>
-      </c>
-      <c r="C205" t="s">
-        <v>798</v>
       </c>
       <c r="D205" t="s">
         <v>752</v>
       </c>
       <c r="E205" t="s">
+        <v>798</v>
+      </c>
+      <c r="F205" t="s">
         <v>799</v>
-      </c>
-      <c r="F205" t="s">
-        <v>800</v>
       </c>
       <c r="G205">
         <v>8</v>
@@ -19781,7 +19710,7 @@
         <v>182</v>
       </c>
       <c r="J205" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K205" t="s">
         <v>88</v>
@@ -19790,7 +19719,7 @@
         <v>82</v>
       </c>
       <c r="M205" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N205">
         <v>4310</v>
@@ -20037,19 +19966,19 @@
         <v>471</v>
       </c>
       <c r="B210" t="s">
+        <v>812</v>
+      </c>
+      <c r="C210" t="s">
         <v>813</v>
-      </c>
-      <c r="C210" t="s">
-        <v>814</v>
       </c>
       <c r="D210" t="s">
         <v>749</v>
       </c>
       <c r="E210" t="s">
+        <v>814</v>
+      </c>
+      <c r="F210" t="s">
         <v>815</v>
-      </c>
-      <c r="F210" t="s">
-        <v>816</v>
       </c>
       <c r="G210">
         <v>8</v>
@@ -20093,16 +20022,16 @@
         <v>471</v>
       </c>
       <c r="B211" t="s">
+        <v>802</v>
+      </c>
+      <c r="C211" t="s">
         <v>803</v>
-      </c>
-      <c r="C211" t="s">
-        <v>804</v>
       </c>
       <c r="D211" t="s">
         <v>754</v>
       </c>
       <c r="E211" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F211" t="s">
         <v>612</v>
@@ -20117,7 +20046,7 @@
         <v>182</v>
       </c>
       <c r="J211" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K211" t="s">
         <v>88</v>
@@ -20316,32 +20245,28 @@
       <c r="G268" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q2:Q211">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q212:Q268">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q212)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q212)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1 Q212:Q1048576">
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Descontinuado">
+  <conditionalFormatting sqref="Q212:Q1048576 Q1">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q211">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Descontinuado">
-      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q211">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q211">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms.xlsx
+++ b/cardapio_tms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B2E9B30-AB68-4E00-A4EC-5666682FA94D}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7318CE41-F579-45F9-AEC2-7CB74EDE544C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2955" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="831">
   <si>
     <t>Marca</t>
   </si>
@@ -7668,6 +7668,42 @@
   </si>
   <si>
     <t>50MP + 50MP + 64MP</t>
+  </si>
+  <si>
+    <t>Razr 50</t>
+  </si>
+  <si>
+    <t>XT2453-1</t>
+  </si>
+  <si>
+    <t>MediaTek Dimensity 7300X</t>
+  </si>
+  <si>
+    <t>Moto G55</t>
+  </si>
+  <si>
+    <t>XT2435-1</t>
+  </si>
+  <si>
+    <t>6.49"</t>
+  </si>
+  <si>
+    <t>MediaTek Dimensity 7025</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE</t>
+  </si>
+  <si>
+    <t>SM-S721B/DS</t>
+  </si>
+  <si>
+    <t>Samsung Exynos 2400e</t>
+  </si>
+  <si>
+    <t>Deca-Core 3.1 GHz</t>
+  </si>
+  <si>
+    <t>50MP + 12MP + 8MP</t>
   </si>
 </sst>
 </file>
@@ -7807,7 +7843,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF4F4F"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7910,7 +7970,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="C1:C268"/>
@@ -7922,7 +7982,7 @@
     <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -8238,8 +8298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20074,13 +20134,172 @@
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G212" s="12"/>
+      <c r="A212" t="s">
+        <v>471</v>
+      </c>
+      <c r="B212" t="s">
+        <v>819</v>
+      </c>
+      <c r="C212" t="s">
+        <v>820</v>
+      </c>
+      <c r="D212" t="s">
+        <v>754</v>
+      </c>
+      <c r="E212" t="s">
+        <v>821</v>
+      </c>
+      <c r="F212" t="s">
+        <v>111</v>
+      </c>
+      <c r="G212">
+        <v>8</v>
+      </c>
+      <c r="H212">
+        <v>256</v>
+      </c>
+      <c r="I212" t="s">
+        <v>182</v>
+      </c>
+      <c r="J212" t="s">
+        <v>668</v>
+      </c>
+      <c r="K212" t="s">
+        <v>88</v>
+      </c>
+      <c r="L212" t="s">
+        <v>82</v>
+      </c>
+      <c r="M212" t="s">
+        <v>696</v>
+      </c>
+      <c r="N212">
+        <v>4200</v>
+      </c>
+      <c r="O212">
+        <v>2024</v>
+      </c>
+      <c r="P212" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>390</v>
+      </c>
+      <c r="R212" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G213" s="12"/>
+      <c r="A213" t="s">
+        <v>471</v>
+      </c>
+      <c r="B213" t="s">
+        <v>822</v>
+      </c>
+      <c r="C213" t="s">
+        <v>823</v>
+      </c>
+      <c r="D213" t="s">
+        <v>824</v>
+      </c>
+      <c r="E213" t="s">
+        <v>825</v>
+      </c>
+      <c r="F213" t="s">
+        <v>689</v>
+      </c>
+      <c r="G213">
+        <v>8</v>
+      </c>
+      <c r="H213">
+        <v>256</v>
+      </c>
+      <c r="I213" t="s">
+        <v>22</v>
+      </c>
+      <c r="J213" t="s">
+        <v>658</v>
+      </c>
+      <c r="K213" t="s">
+        <v>50</v>
+      </c>
+      <c r="L213" t="s">
+        <v>82</v>
+      </c>
+      <c r="M213" t="s">
+        <v>801</v>
+      </c>
+      <c r="N213">
+        <v>5000</v>
+      </c>
+      <c r="O213">
+        <v>2024</v>
+      </c>
+      <c r="P213" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>390</v>
+      </c>
+      <c r="R213" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G214" s="12"/>
+      <c r="A214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B214" t="s">
+        <v>826</v>
+      </c>
+      <c r="C214" t="s">
+        <v>827</v>
+      </c>
+      <c r="D214" t="s">
+        <v>749</v>
+      </c>
+      <c r="E214" t="s">
+        <v>828</v>
+      </c>
+      <c r="F214" t="s">
+        <v>829</v>
+      </c>
+      <c r="G214">
+        <v>8</v>
+      </c>
+      <c r="H214">
+        <v>512</v>
+      </c>
+      <c r="I214" t="s">
+        <v>182</v>
+      </c>
+      <c r="J214" t="s">
+        <v>830</v>
+      </c>
+      <c r="K214" t="s">
+        <v>41</v>
+      </c>
+      <c r="L214" t="s">
+        <v>82</v>
+      </c>
+      <c r="M214" t="s">
+        <v>696</v>
+      </c>
+      <c r="N214">
+        <v>4700</v>
+      </c>
+      <c r="O214">
+        <v>2024</v>
+      </c>
+      <c r="P214" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>390</v>
+      </c>
+      <c r="R214" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G215" s="12"/>
@@ -20246,27 +20465,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q2:Q211">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q212:Q268">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q212)))</formula>
+  <conditionalFormatting sqref="Q215:Q268">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q212)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q215)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q212:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Descontinuado">
+  <conditionalFormatting sqref="Q215:Q1048576 Q1">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q212:Q214">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q212))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q212:Q214">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q212))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q212:Q214">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q212))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms.xlsx
+++ b/cardapio_tms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE64D9AA-C53B-4E8C-B878-980F0C42D192}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{580421D8-67CF-45AC-AACD-0FEC25B1638A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3025" uniqueCount="836">
   <si>
     <t>Marca</t>
   </si>
@@ -7704,6 +7704,21 @@
   </si>
   <si>
     <t>50MP + 12MP + 8MP</t>
+  </si>
+  <si>
+    <t>Galaxy A16 5G</t>
+  </si>
+  <si>
+    <t>SM-A166M/DS</t>
+  </si>
+  <si>
+    <t>Até 1.5TB</t>
+  </si>
+  <si>
+    <t>Galaxy A16</t>
+  </si>
+  <si>
+    <t>SM-A165M/DS</t>
   </si>
 </sst>
 </file>
@@ -7843,7 +7858,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF4F4F"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7962,7 +8001,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="A1:A268"/>
@@ -7974,7 +8013,7 @@
     <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -8290,8 +8329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20293,11 +20332,117 @@
         <v>726</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G215" s="12"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G216" s="12"/>
+    <row r="215" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s">
+        <v>831</v>
+      </c>
+      <c r="C215" t="s">
+        <v>832</v>
+      </c>
+      <c r="D215" t="s">
+        <v>749</v>
+      </c>
+      <c r="E215" t="s">
+        <v>377</v>
+      </c>
+      <c r="F215" t="s">
+        <v>689</v>
+      </c>
+      <c r="G215">
+        <v>4</v>
+      </c>
+      <c r="H215">
+        <v>128</v>
+      </c>
+      <c r="I215" t="s">
+        <v>833</v>
+      </c>
+      <c r="J215" t="s">
+        <v>366</v>
+      </c>
+      <c r="K215" t="s">
+        <v>73</v>
+      </c>
+      <c r="L215" t="s">
+        <v>82</v>
+      </c>
+      <c r="M215" t="s">
+        <v>696</v>
+      </c>
+      <c r="N215">
+        <v>5000</v>
+      </c>
+      <c r="O215">
+        <v>2024</v>
+      </c>
+      <c r="P215" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>390</v>
+      </c>
+      <c r="R215" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B216" t="s">
+        <v>834</v>
+      </c>
+      <c r="C216" t="s">
+        <v>835</v>
+      </c>
+      <c r="D216" t="s">
+        <v>749</v>
+      </c>
+      <c r="E216" t="s">
+        <v>365</v>
+      </c>
+      <c r="F216" t="s">
+        <v>689</v>
+      </c>
+      <c r="G216">
+        <v>6</v>
+      </c>
+      <c r="H216">
+        <v>256</v>
+      </c>
+      <c r="I216" t="s">
+        <v>833</v>
+      </c>
+      <c r="J216" t="s">
+        <v>366</v>
+      </c>
+      <c r="K216" t="s">
+        <v>73</v>
+      </c>
+      <c r="L216" t="s">
+        <v>25</v>
+      </c>
+      <c r="M216" t="s">
+        <v>696</v>
+      </c>
+      <c r="N216">
+        <v>5000</v>
+      </c>
+      <c r="O216">
+        <v>2024</v>
+      </c>
+      <c r="P216" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>390</v>
+      </c>
+      <c r="R216" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G217" s="12"/>
@@ -20457,37 +20602,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q2:Q211">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q214">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q212:Q214">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q212))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q212))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q215:Q268">
-    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q215)))</formula>
+  <conditionalFormatting sqref="Q217:Q268">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q215)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q217)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q215:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="Descontinuado">
+  <conditionalFormatting sqref="Q217:Q1048576 Q1">
+    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q215:Q216">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q215))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q215:Q216">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q215))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q215:Q216">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q215))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms.xlsx
+++ b/cardapio_tms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{580421D8-67CF-45AC-AACD-0FEC25B1638A}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{83A70858-E2FC-4328-A35B-E2A5127261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C8BCAC-3F6C-4D8E-9FE4-049C89B82535}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -3020,7 +3020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G130" authorId="0" shapeId="0" xr:uid="{C7985F9D-22C8-471E-A22C-39A1E027F298}">
+    <comment ref="G132" authorId="0" shapeId="0" xr:uid="{C7985F9D-22C8-471E-A22C-39A1E027F298}">
       <text>
         <r>
           <rPr>
@@ -3044,7 +3044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H130" authorId="0" shapeId="0" xr:uid="{A6BB7E49-2D91-4F95-BFE5-A2F9123AD28D}">
+    <comment ref="H132" authorId="0" shapeId="0" xr:uid="{A6BB7E49-2D91-4F95-BFE5-A2F9123AD28D}">
       <text>
         <r>
           <rPr>
@@ -3068,7 +3068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H131" authorId="0" shapeId="0" xr:uid="{F806370D-6FF6-4C60-9445-D6AD32066272}">
+    <comment ref="H133" authorId="0" shapeId="0" xr:uid="{F806370D-6FF6-4C60-9445-D6AD32066272}">
       <text>
         <r>
           <rPr>
@@ -3092,7 +3092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G132" authorId="0" shapeId="0" xr:uid="{67369CF0-F47A-49E2-B902-AECB7DB03853}">
+    <comment ref="G134" authorId="0" shapeId="0" xr:uid="{67369CF0-F47A-49E2-B902-AECB7DB03853}">
       <text>
         <r>
           <rPr>
@@ -3116,7 +3116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H132" authorId="0" shapeId="0" xr:uid="{6B9E1970-482E-4FAD-9A89-422ACDFE9E8A}">
+    <comment ref="H134" authorId="0" shapeId="0" xr:uid="{6B9E1970-482E-4FAD-9A89-422ACDFE9E8A}">
       <text>
         <r>
           <rPr>
@@ -3140,7 +3140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G133" authorId="0" shapeId="0" xr:uid="{4584382D-F711-48D0-9EFC-301EE7030E74}">
+    <comment ref="G135" authorId="0" shapeId="0" xr:uid="{4584382D-F711-48D0-9EFC-301EE7030E74}">
       <text>
         <r>
           <rPr>
@@ -3164,7 +3164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H133" authorId="0" shapeId="0" xr:uid="{19B29988-2984-48FB-8108-C4A21F00051B}">
+    <comment ref="H135" authorId="0" shapeId="0" xr:uid="{19B29988-2984-48FB-8108-C4A21F00051B}">
       <text>
         <r>
           <rPr>
@@ -3188,7 +3188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H134" authorId="0" shapeId="0" xr:uid="{8AB6F016-351C-46F6-BE60-C8AB363E8C56}">
+    <comment ref="H136" authorId="0" shapeId="0" xr:uid="{8AB6F016-351C-46F6-BE60-C8AB363E8C56}">
       <text>
         <r>
           <rPr>
@@ -3212,7 +3212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H135" authorId="0" shapeId="0" xr:uid="{117CEA7E-0406-49CE-95CA-4D22A9D6EE54}">
+    <comment ref="H137" authorId="0" shapeId="0" xr:uid="{117CEA7E-0406-49CE-95CA-4D22A9D6EE54}">
       <text>
         <r>
           <rPr>
@@ -3236,7 +3236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H136" authorId="0" shapeId="0" xr:uid="{87CBDC9B-ADA4-4DA3-86CB-AAC7F5178A09}">
+    <comment ref="H138" authorId="0" shapeId="0" xr:uid="{87CBDC9B-ADA4-4DA3-86CB-AAC7F5178A09}">
       <text>
         <r>
           <rPr>
@@ -3260,7 +3260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G137" authorId="0" shapeId="0" xr:uid="{F6675C50-751E-4384-97BF-23035EECD0FA}">
+    <comment ref="G139" authorId="0" shapeId="0" xr:uid="{F6675C50-751E-4384-97BF-23035EECD0FA}">
       <text>
         <r>
           <rPr>
@@ -3284,7 +3284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H137" authorId="0" shapeId="0" xr:uid="{5DC015E4-EE21-40A3-B6C8-439B842831A4}">
+    <comment ref="H139" authorId="0" shapeId="0" xr:uid="{5DC015E4-EE21-40A3-B6C8-439B842831A4}">
       <text>
         <r>
           <rPr>
@@ -3308,7 +3308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H140" authorId="0" shapeId="0" xr:uid="{5F41A50D-CCD7-4494-B3DE-4D6C179487BE}">
+    <comment ref="H142" authorId="0" shapeId="0" xr:uid="{5F41A50D-CCD7-4494-B3DE-4D6C179487BE}">
       <text>
         <r>
           <rPr>
@@ -3332,7 +3332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G141" authorId="0" shapeId="0" xr:uid="{578E638D-E25A-4847-9B01-C2FEF14E1547}">
+    <comment ref="G143" authorId="0" shapeId="0" xr:uid="{578E638D-E25A-4847-9B01-C2FEF14E1547}">
       <text>
         <r>
           <rPr>
@@ -3356,7 +3356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H142" authorId="0" shapeId="0" xr:uid="{474EAA21-E7FB-493D-A735-3BCBF2D3CD73}">
+    <comment ref="H144" authorId="0" shapeId="0" xr:uid="{474EAA21-E7FB-493D-A735-3BCBF2D3CD73}">
       <text>
         <r>
           <rPr>
@@ -3380,7 +3380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G143" authorId="0" shapeId="0" xr:uid="{92641F7D-168A-4E6F-9139-E37883E854E8}">
+    <comment ref="G145" authorId="0" shapeId="0" xr:uid="{92641F7D-168A-4E6F-9139-E37883E854E8}">
       <text>
         <r>
           <rPr>
@@ -3404,7 +3404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H143" authorId="0" shapeId="0" xr:uid="{AFF3F322-5981-4DB7-8744-97B716BBC9C7}">
+    <comment ref="H145" authorId="0" shapeId="0" xr:uid="{AFF3F322-5981-4DB7-8744-97B716BBC9C7}">
       <text>
         <r>
           <rPr>
@@ -3428,7 +3428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H147" authorId="0" shapeId="0" xr:uid="{9A947861-C1EF-47FC-A846-BCBDD88C96FE}">
+    <comment ref="H149" authorId="0" shapeId="0" xr:uid="{9A947861-C1EF-47FC-A846-BCBDD88C96FE}">
       <text>
         <r>
           <rPr>
@@ -3452,7 +3452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H148" authorId="0" shapeId="0" xr:uid="{649F0782-BA39-4DB2-B629-89EB7527F0BD}">
+    <comment ref="H150" authorId="0" shapeId="0" xr:uid="{649F0782-BA39-4DB2-B629-89EB7527F0BD}">
       <text>
         <r>
           <rPr>
@@ -3476,7 +3476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G149" authorId="0" shapeId="0" xr:uid="{532ED1A7-2385-48DC-96FC-3019A0E3495F}">
+    <comment ref="G151" authorId="0" shapeId="0" xr:uid="{532ED1A7-2385-48DC-96FC-3019A0E3495F}">
       <text>
         <r>
           <rPr>
@@ -3501,7 +3501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H149" authorId="0" shapeId="0" xr:uid="{E84BC83E-509F-4456-97DC-83C08692E67B}">
+    <comment ref="H151" authorId="0" shapeId="0" xr:uid="{E84BC83E-509F-4456-97DC-83C08692E67B}">
       <text>
         <r>
           <rPr>
@@ -3525,7 +3525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H150" authorId="0" shapeId="0" xr:uid="{F0FD1885-BA5A-4E47-8B5F-B7D5A3070674}">
+    <comment ref="H152" authorId="0" shapeId="0" xr:uid="{F0FD1885-BA5A-4E47-8B5F-B7D5A3070674}">
       <text>
         <r>
           <rPr>
@@ -3549,7 +3549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G151" authorId="0" shapeId="0" xr:uid="{80CD6F98-BA5C-48B1-B098-93C4AE4B10C3}">
+    <comment ref="G153" authorId="0" shapeId="0" xr:uid="{80CD6F98-BA5C-48B1-B098-93C4AE4B10C3}">
       <text>
         <r>
           <rPr>
@@ -3573,7 +3573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H151" authorId="0" shapeId="0" xr:uid="{1EA8FF74-D6DA-43FA-99A1-5C70135ADF88}">
+    <comment ref="H153" authorId="0" shapeId="0" xr:uid="{1EA8FF74-D6DA-43FA-99A1-5C70135ADF88}">
       <text>
         <r>
           <rPr>
@@ -3597,7 +3597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G152" authorId="0" shapeId="0" xr:uid="{AAEF709C-E214-4401-A289-D07569CA37DD}">
+    <comment ref="G154" authorId="0" shapeId="0" xr:uid="{AAEF709C-E214-4401-A289-D07569CA37DD}">
       <text>
         <r>
           <rPr>
@@ -3621,7 +3621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H152" authorId="0" shapeId="0" xr:uid="{46BEC89D-EB58-42B7-B524-FE79438FAA8B}">
+    <comment ref="H154" authorId="0" shapeId="0" xr:uid="{46BEC89D-EB58-42B7-B524-FE79438FAA8B}">
       <text>
         <r>
           <rPr>
@@ -3645,7 +3645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H153" authorId="0" shapeId="0" xr:uid="{D042B48B-BEFB-45F2-BAEA-F80843B8D021}">
+    <comment ref="H155" authorId="0" shapeId="0" xr:uid="{D042B48B-BEFB-45F2-BAEA-F80843B8D021}">
       <text>
         <r>
           <rPr>
@@ -3669,7 +3669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H155" authorId="0" shapeId="0" xr:uid="{7CC55F4E-BDAB-4114-8F75-1D37646FA726}">
+    <comment ref="H157" authorId="0" shapeId="0" xr:uid="{7CC55F4E-BDAB-4114-8F75-1D37646FA726}">
       <text>
         <r>
           <rPr>
@@ -3693,7 +3693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G156" authorId="0" shapeId="0" xr:uid="{6D5E233E-A4B6-4227-BCC0-73D4682DD5CF}">
+    <comment ref="G158" authorId="0" shapeId="0" xr:uid="{6D5E233E-A4B6-4227-BCC0-73D4682DD5CF}">
       <text>
         <r>
           <rPr>
@@ -3717,7 +3717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H156" authorId="0" shapeId="0" xr:uid="{D65EC226-20C6-4FD1-8524-9B67F0E8E1DF}">
+    <comment ref="H158" authorId="0" shapeId="0" xr:uid="{D65EC226-20C6-4FD1-8524-9B67F0E8E1DF}">
       <text>
         <r>
           <rPr>
@@ -3741,7 +3741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H157" authorId="0" shapeId="0" xr:uid="{AA3575DD-4E5A-4B48-BF86-1F883D2A695B}">
+    <comment ref="H159" authorId="0" shapeId="0" xr:uid="{AA3575DD-4E5A-4B48-BF86-1F883D2A695B}">
       <text>
         <r>
           <rPr>
@@ -3765,7 +3765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G158" authorId="0" shapeId="0" xr:uid="{F5B3A649-D953-48FB-A6E6-111B3712BF0A}">
+    <comment ref="G160" authorId="0" shapeId="0" xr:uid="{F5B3A649-D953-48FB-A6E6-111B3712BF0A}">
       <text>
         <r>
           <rPr>
@@ -3789,7 +3789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H158" authorId="0" shapeId="0" xr:uid="{148A5122-725A-4352-A717-50E04E112FC4}">
+    <comment ref="H160" authorId="0" shapeId="0" xr:uid="{148A5122-725A-4352-A717-50E04E112FC4}">
       <text>
         <r>
           <rPr>
@@ -3813,7 +3813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G159" authorId="0" shapeId="0" xr:uid="{1BA68F84-5A4A-4FB8-845D-A5430679DEA7}">
+    <comment ref="G161" authorId="0" shapeId="0" xr:uid="{1BA68F84-5A4A-4FB8-845D-A5430679DEA7}">
       <text>
         <r>
           <rPr>
@@ -3837,7 +3837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H159" authorId="0" shapeId="0" xr:uid="{0BB80C01-0A54-4118-A439-8EE624362B6B}">
+    <comment ref="H161" authorId="0" shapeId="0" xr:uid="{0BB80C01-0A54-4118-A439-8EE624362B6B}">
       <text>
         <r>
           <rPr>
@@ -3862,7 +3862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H160" authorId="0" shapeId="0" xr:uid="{E61A2FD5-0379-4EFB-AC01-EB37C3545888}">
+    <comment ref="H162" authorId="0" shapeId="0" xr:uid="{E61A2FD5-0379-4EFB-AC01-EB37C3545888}">
       <text>
         <r>
           <rPr>
@@ -3886,7 +3886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H161" authorId="0" shapeId="0" xr:uid="{88E74B6C-3945-4C2F-83FC-73364AED3426}">
+    <comment ref="H163" authorId="0" shapeId="0" xr:uid="{88E74B6C-3945-4C2F-83FC-73364AED3426}">
       <text>
         <r>
           <rPr>
@@ -3910,7 +3910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G162" authorId="0" shapeId="0" xr:uid="{BD828604-A460-4E7E-9ECE-8A7D1671605B}">
+    <comment ref="G164" authorId="0" shapeId="0" xr:uid="{BD828604-A460-4E7E-9ECE-8A7D1671605B}">
       <text>
         <r>
           <rPr>
@@ -3934,7 +3934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H162" authorId="0" shapeId="0" xr:uid="{166FDAE8-80E8-4E6E-8E8A-2B5CFC90A2FA}">
+    <comment ref="H164" authorId="0" shapeId="0" xr:uid="{166FDAE8-80E8-4E6E-8E8A-2B5CFC90A2FA}">
       <text>
         <r>
           <rPr>
@@ -3958,7 +3958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H163" authorId="0" shapeId="0" xr:uid="{105102AA-50D9-422C-BB67-7321632751AD}">
+    <comment ref="H165" authorId="0" shapeId="0" xr:uid="{105102AA-50D9-422C-BB67-7321632751AD}">
       <text>
         <r>
           <rPr>
@@ -3982,7 +3982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H164" authorId="0" shapeId="0" xr:uid="{D2B2F005-ACC0-4826-B993-7B81CAA2FA91}">
+    <comment ref="H166" authorId="0" shapeId="0" xr:uid="{D2B2F005-ACC0-4826-B993-7B81CAA2FA91}">
       <text>
         <r>
           <rPr>
@@ -4006,7 +4006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G165" authorId="0" shapeId="0" xr:uid="{3B21DD22-4D28-4093-8667-96C9CA88311F}">
+    <comment ref="G167" authorId="0" shapeId="0" xr:uid="{3B21DD22-4D28-4093-8667-96C9CA88311F}">
       <text>
         <r>
           <rPr>
@@ -4030,7 +4030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G166" authorId="0" shapeId="0" xr:uid="{B429FD7E-6474-4D49-9DD1-10DFE1774549}">
+    <comment ref="G168" authorId="0" shapeId="0" xr:uid="{B429FD7E-6474-4D49-9DD1-10DFE1774549}">
       <text>
         <r>
           <rPr>
@@ -4054,7 +4054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H166" authorId="0" shapeId="0" xr:uid="{672B4638-22EE-4F51-B8F7-44D122CF8AEF}">
+    <comment ref="H168" authorId="0" shapeId="0" xr:uid="{672B4638-22EE-4F51-B8F7-44D122CF8AEF}">
       <text>
         <r>
           <rPr>
@@ -4078,7 +4078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G167" authorId="0" shapeId="0" xr:uid="{F4CBF189-214B-4725-AA78-921EF34673FB}">
+    <comment ref="G169" authorId="0" shapeId="0" xr:uid="{F4CBF189-214B-4725-AA78-921EF34673FB}">
       <text>
         <r>
           <rPr>
@@ -4102,7 +4102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H167" authorId="0" shapeId="0" xr:uid="{47C00C16-4D65-4F11-B5E4-B94EC15C104C}">
+    <comment ref="H169" authorId="0" shapeId="0" xr:uid="{47C00C16-4D65-4F11-B5E4-B94EC15C104C}">
       <text>
         <r>
           <rPr>
@@ -4126,7 +4126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H168" authorId="0" shapeId="0" xr:uid="{F1B116B5-362E-4948-9FE5-1800D104346A}">
+    <comment ref="H170" authorId="0" shapeId="0" xr:uid="{F1B116B5-362E-4948-9FE5-1800D104346A}">
       <text>
         <r>
           <rPr>
@@ -4150,7 +4150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H169" authorId="0" shapeId="0" xr:uid="{13F7981B-6EFA-47E9-A964-18727F3E32A9}">
+    <comment ref="H171" authorId="0" shapeId="0" xr:uid="{13F7981B-6EFA-47E9-A964-18727F3E32A9}">
       <text>
         <r>
           <rPr>
@@ -4174,7 +4174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G170" authorId="0" shapeId="0" xr:uid="{6411D3A8-7544-4534-AD87-7952C9CF4E75}">
+    <comment ref="G172" authorId="0" shapeId="0" xr:uid="{6411D3A8-7544-4534-AD87-7952C9CF4E75}">
       <text>
         <r>
           <rPr>
@@ -4198,7 +4198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H170" authorId="0" shapeId="0" xr:uid="{3DD80355-89DF-4EB6-BCFB-3F501752EC53}">
+    <comment ref="H172" authorId="0" shapeId="0" xr:uid="{3DD80355-89DF-4EB6-BCFB-3F501752EC53}">
       <text>
         <r>
           <rPr>
@@ -4222,7 +4222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H171" authorId="0" shapeId="0" xr:uid="{B1A9BAEE-B47D-467E-943D-8D79D91BAB50}">
+    <comment ref="H173" authorId="0" shapeId="0" xr:uid="{B1A9BAEE-B47D-467E-943D-8D79D91BAB50}">
       <text>
         <r>
           <rPr>
@@ -4246,7 +4246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H172" authorId="0" shapeId="0" xr:uid="{E435A412-596B-4FCB-929A-8A1A416F84DB}">
+    <comment ref="H174" authorId="0" shapeId="0" xr:uid="{E435A412-596B-4FCB-929A-8A1A416F84DB}">
       <text>
         <r>
           <rPr>
@@ -4270,7 +4270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H173" authorId="0" shapeId="0" xr:uid="{4A4F0693-25ED-4896-AC50-277C70D42199}">
+    <comment ref="H175" authorId="0" shapeId="0" xr:uid="{4A4F0693-25ED-4896-AC50-277C70D42199}">
       <text>
         <r>
           <rPr>
@@ -4294,7 +4294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H174" authorId="0" shapeId="0" xr:uid="{B6BA0BD3-7C43-4A9B-9282-01CF2962E687}">
+    <comment ref="H176" authorId="0" shapeId="0" xr:uid="{B6BA0BD3-7C43-4A9B-9282-01CF2962E687}">
       <text>
         <r>
           <rPr>
@@ -4318,7 +4318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H175" authorId="0" shapeId="0" xr:uid="{BA993976-2112-4A49-98EA-8D1BE31A1CA8}">
+    <comment ref="H177" authorId="0" shapeId="0" xr:uid="{BA993976-2112-4A49-98EA-8D1BE31A1CA8}">
       <text>
         <r>
           <rPr>
@@ -4342,7 +4342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G177" authorId="0" shapeId="0" xr:uid="{D93CCCA3-C2E8-446C-AD2F-6C190FF9505D}">
+    <comment ref="G179" authorId="0" shapeId="0" xr:uid="{D93CCCA3-C2E8-446C-AD2F-6C190FF9505D}">
       <text>
         <r>
           <rPr>
@@ -4366,7 +4366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H177" authorId="0" shapeId="0" xr:uid="{87BDAE79-AB2A-4492-92B8-3A1E3CBC6125}">
+    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{87BDAE79-AB2A-4492-92B8-3A1E3CBC6125}">
       <text>
         <r>
           <rPr>
@@ -4390,7 +4390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G178" authorId="0" shapeId="0" xr:uid="{04E57D96-F639-43DE-8AEA-7F3EEB4543CA}">
+    <comment ref="G180" authorId="0" shapeId="0" xr:uid="{04E57D96-F639-43DE-8AEA-7F3EEB4543CA}">
       <text>
         <r>
           <rPr>
@@ -4414,7 +4414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H178" authorId="0" shapeId="0" xr:uid="{F61368BD-A658-4737-8200-48E35078914E}">
+    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{F61368BD-A658-4737-8200-48E35078914E}">
       <text>
         <r>
           <rPr>
@@ -4438,7 +4438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{89C6DEEA-4C57-487F-B477-B7F4E1FD4F86}">
+    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{89C6DEEA-4C57-487F-B477-B7F4E1FD4F86}">
       <text>
         <r>
           <rPr>
@@ -4462,7 +4462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{6313C27C-FB6F-49CC-BDFE-3F7678BF63C5}">
+    <comment ref="H182" authorId="0" shapeId="0" xr:uid="{6313C27C-FB6F-49CC-BDFE-3F7678BF63C5}">
       <text>
         <r>
           <rPr>
@@ -4486,7 +4486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{8326891F-F0A5-4D28-88FB-CBE17F9FFDE0}">
+    <comment ref="H183" authorId="0" shapeId="0" xr:uid="{8326891F-F0A5-4D28-88FB-CBE17F9FFDE0}">
       <text>
         <r>
           <rPr>
@@ -4510,7 +4510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H184" authorId="0" shapeId="0" xr:uid="{B3077634-9CF8-4A0E-8602-6C43BA4CE1B4}">
+    <comment ref="H186" authorId="0" shapeId="0" xr:uid="{B3077634-9CF8-4A0E-8602-6C43BA4CE1B4}">
       <text>
         <r>
           <rPr>
@@ -4534,7 +4534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G186" authorId="0" shapeId="0" xr:uid="{74F3DE8B-7D71-4CC4-B7EB-3852970E298A}">
+    <comment ref="G188" authorId="0" shapeId="0" xr:uid="{74F3DE8B-7D71-4CC4-B7EB-3852970E298A}">
       <text>
         <r>
           <rPr>
@@ -4558,7 +4558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H186" authorId="0" shapeId="0" xr:uid="{2115EA4A-78AE-401E-95B2-ACCB625739CD}">
+    <comment ref="H188" authorId="0" shapeId="0" xr:uid="{2115EA4A-78AE-401E-95B2-ACCB625739CD}">
       <text>
         <r>
           <rPr>
@@ -4582,7 +4582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G188" authorId="0" shapeId="0" xr:uid="{706DABB1-59B3-4CC0-B231-6E691AD6398B}">
+    <comment ref="G190" authorId="0" shapeId="0" xr:uid="{706DABB1-59B3-4CC0-B231-6E691AD6398B}">
       <text>
         <r>
           <rPr>
@@ -4606,7 +4606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H188" authorId="0" shapeId="0" xr:uid="{0ACDF80F-D728-4F2F-97BA-86014EEB93EC}">
+    <comment ref="H190" authorId="0" shapeId="0" xr:uid="{0ACDF80F-D728-4F2F-97BA-86014EEB93EC}">
       <text>
         <r>
           <rPr>
@@ -4630,7 +4630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H189" authorId="0" shapeId="0" xr:uid="{8B7DB300-E050-4C38-96BC-4B765B31753C}">
+    <comment ref="H191" authorId="0" shapeId="0" xr:uid="{8B7DB300-E050-4C38-96BC-4B765B31753C}">
       <text>
         <r>
           <rPr>
@@ -4654,7 +4654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H190" authorId="0" shapeId="0" xr:uid="{F7E78F03-0A2C-436B-948E-EAF1B3043D0C}">
+    <comment ref="H192" authorId="0" shapeId="0" xr:uid="{F7E78F03-0A2C-436B-948E-EAF1B3043D0C}">
       <text>
         <r>
           <rPr>
@@ -4678,7 +4678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H191" authorId="0" shapeId="0" xr:uid="{97B82D73-C8B6-4CC2-9B9F-1EBAD889850C}">
+    <comment ref="H193" authorId="0" shapeId="0" xr:uid="{97B82D73-C8B6-4CC2-9B9F-1EBAD889850C}">
       <text>
         <r>
           <rPr>
@@ -4702,7 +4702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H192" authorId="0" shapeId="0" xr:uid="{7F9204A4-D70E-40D0-8F78-25B41DE3C2C2}">
+    <comment ref="H194" authorId="0" shapeId="0" xr:uid="{7F9204A4-D70E-40D0-8F78-25B41DE3C2C2}">
       <text>
         <r>
           <rPr>
@@ -4726,7 +4726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G193" authorId="0" shapeId="0" xr:uid="{B40B0625-51B9-4C2C-93EC-6B31125ECD72}">
+    <comment ref="G195" authorId="0" shapeId="0" xr:uid="{B40B0625-51B9-4C2C-93EC-6B31125ECD72}">
       <text>
         <r>
           <rPr>
@@ -4750,7 +4750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H193" authorId="0" shapeId="0" xr:uid="{9A9ED112-8E64-4486-BA3C-45C8A0457029}">
+    <comment ref="H195" authorId="0" shapeId="0" xr:uid="{9A9ED112-8E64-4486-BA3C-45C8A0457029}">
       <text>
         <r>
           <rPr>
@@ -4774,7 +4774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H194" authorId="0" shapeId="0" xr:uid="{D06F8028-C7EC-41B0-B881-6F9D98020BEA}">
+    <comment ref="H196" authorId="0" shapeId="0" xr:uid="{D06F8028-C7EC-41B0-B881-6F9D98020BEA}">
       <text>
         <r>
           <rPr>
@@ -4798,7 +4798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H195" authorId="0" shapeId="0" xr:uid="{5613C808-F70D-4682-9F54-D2DC13A98EDE}">
+    <comment ref="H197" authorId="0" shapeId="0" xr:uid="{5613C808-F70D-4682-9F54-D2DC13A98EDE}">
       <text>
         <r>
           <rPr>
@@ -4822,7 +4822,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H197" authorId="0" shapeId="0" xr:uid="{5C300BE8-05A3-4F3E-8736-D89E2B4A26D4}">
+    <comment ref="H199" authorId="0" shapeId="0" xr:uid="{5C300BE8-05A3-4F3E-8736-D89E2B4A26D4}">
       <text>
         <r>
           <rPr>
@@ -4846,7 +4846,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H199" authorId="0" shapeId="0" xr:uid="{F79D617F-E694-43B8-891F-45C07A4EFB61}">
+    <comment ref="H201" authorId="0" shapeId="0" xr:uid="{F79D617F-E694-43B8-891F-45C07A4EFB61}">
       <text>
         <r>
           <rPr>
@@ -4870,7 +4870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G200" authorId="0" shapeId="0" xr:uid="{81F67895-D670-4682-81E8-D2B7D146C17F}">
+    <comment ref="G202" authorId="0" shapeId="0" xr:uid="{81F67895-D670-4682-81E8-D2B7D146C17F}">
       <text>
         <r>
           <rPr>
@@ -4894,7 +4894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H200" authorId="0" shapeId="0" xr:uid="{5AE8CF98-309A-48E8-8086-68D72192AEFA}">
+    <comment ref="H202" authorId="0" shapeId="0" xr:uid="{5AE8CF98-309A-48E8-8086-68D72192AEFA}">
       <text>
         <r>
           <rPr>
@@ -4918,7 +4918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H202" authorId="0" shapeId="0" xr:uid="{30BDFB33-3FF7-4C46-934C-5EB5CC18DB79}">
+    <comment ref="H204" authorId="0" shapeId="0" xr:uid="{30BDFB33-3FF7-4C46-934C-5EB5CC18DB79}">
       <text>
         <r>
           <rPr>
@@ -4942,7 +4942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H203" authorId="0" shapeId="0" xr:uid="{3B94BF66-2AB0-4605-A682-38A42710A24D}">
+    <comment ref="H205" authorId="0" shapeId="0" xr:uid="{3B94BF66-2AB0-4605-A682-38A42710A24D}">
       <text>
         <r>
           <rPr>
@@ -4966,7 +4966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G204" authorId="0" shapeId="0" xr:uid="{138E9DE0-EF1E-49E0-8F35-DFD70F11737B}">
+    <comment ref="G206" authorId="0" shapeId="0" xr:uid="{138E9DE0-EF1E-49E0-8F35-DFD70F11737B}">
       <text>
         <r>
           <rPr>
@@ -4990,7 +4990,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H204" authorId="0" shapeId="0" xr:uid="{304241EA-7211-4188-ADB3-C03297A04377}">
+    <comment ref="H206" authorId="0" shapeId="0" xr:uid="{304241EA-7211-4188-ADB3-C03297A04377}">
       <text>
         <r>
           <rPr>
@@ -5014,7 +5014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H205" authorId="0" shapeId="0" xr:uid="{56243218-4CDE-4169-85F8-64AA63AD8EEC}">
+    <comment ref="H207" authorId="0" shapeId="0" xr:uid="{56243218-4CDE-4169-85F8-64AA63AD8EEC}">
       <text>
         <r>
           <rPr>
@@ -5038,7 +5038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G206" authorId="0" shapeId="0" xr:uid="{C86C80D8-D12D-46F4-BB25-7ACBCF18FF33}">
+    <comment ref="G208" authorId="0" shapeId="0" xr:uid="{C86C80D8-D12D-46F4-BB25-7ACBCF18FF33}">
       <text>
         <r>
           <rPr>
@@ -5062,7 +5062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H206" authorId="0" shapeId="0" xr:uid="{538890D7-CE45-4915-A198-5382308A90A2}">
+    <comment ref="H208" authorId="0" shapeId="0" xr:uid="{538890D7-CE45-4915-A198-5382308A90A2}">
       <text>
         <r>
           <rPr>
@@ -5086,7 +5086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H208" authorId="0" shapeId="0" xr:uid="{D60EEDC8-E6E1-4442-AB22-323F24FB678A}">
+    <comment ref="H210" authorId="0" shapeId="0" xr:uid="{D60EEDC8-E6E1-4442-AB22-323F24FB678A}">
       <text>
         <r>
           <rPr>
@@ -5110,7 +5110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H210" authorId="0" shapeId="0" xr:uid="{2DABA685-9C86-457A-9BB3-D25209B70B66}">
+    <comment ref="H212" authorId="0" shapeId="0" xr:uid="{2DABA685-9C86-457A-9BB3-D25209B70B66}">
       <text>
         <r>
           <rPr>
@@ -5134,7 +5134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H211" authorId="0" shapeId="0" xr:uid="{56D44C42-9803-443B-8465-88DDC95824AA}">
+    <comment ref="H213" authorId="0" shapeId="0" xr:uid="{56D44C42-9803-443B-8465-88DDC95824AA}">
       <text>
         <r>
           <rPr>
@@ -5158,7 +5158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H212" authorId="0" shapeId="0" xr:uid="{1B8A37AD-151B-4BA4-9091-92B0BF621688}">
+    <comment ref="H214" authorId="0" shapeId="0" xr:uid="{1B8A37AD-151B-4BA4-9091-92B0BF621688}">
       <text>
         <r>
           <rPr>
@@ -5182,7 +5182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H213" authorId="0" shapeId="0" xr:uid="{2038AD2E-C55B-489B-BCCF-50F39FF28C31}">
+    <comment ref="H215" authorId="0" shapeId="0" xr:uid="{2038AD2E-C55B-489B-BCCF-50F39FF28C31}">
       <text>
         <r>
           <rPr>
@@ -7858,31 +7858,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4F4F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -8001,7 +7977,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="A1:A268"/>
@@ -8013,7 +7989,7 @@
     <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -8329,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
@@ -15577,112 +15553,112 @@
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="A130" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G130" s="11">
-        <v>3</v>
-      </c>
-      <c r="H130" s="4">
-        <v>32</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L130" s="4" t="s">
+      <c r="B130" t="s">
+        <v>834</v>
+      </c>
+      <c r="C130" t="s">
+        <v>835</v>
+      </c>
+      <c r="D130" t="s">
+        <v>749</v>
+      </c>
+      <c r="E130" t="s">
+        <v>365</v>
+      </c>
+      <c r="F130" t="s">
+        <v>689</v>
+      </c>
+      <c r="G130">
+        <v>6</v>
+      </c>
+      <c r="H130">
+        <v>256</v>
+      </c>
+      <c r="I130" t="s">
+        <v>833</v>
+      </c>
+      <c r="J130" t="s">
+        <v>366</v>
+      </c>
+      <c r="K130" t="s">
+        <v>73</v>
+      </c>
+      <c r="L130" t="s">
         <v>25</v>
       </c>
-      <c r="M130" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N130" s="4">
-        <v>4000</v>
-      </c>
-      <c r="O130" s="4">
-        <v>2019</v>
-      </c>
-      <c r="P130" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q130" s="4" t="s">
-        <v>28</v>
+      <c r="M130" t="s">
+        <v>696</v>
+      </c>
+      <c r="N130">
+        <v>5000</v>
+      </c>
+      <c r="O130">
+        <v>2024</v>
+      </c>
+      <c r="P130" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>390</v>
       </c>
       <c r="R130" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="A131" t="s">
         <v>17</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G131" s="10">
-        <v>3</v>
-      </c>
-      <c r="H131" s="4">
-        <v>64</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="B131" t="s">
+        <v>831</v>
+      </c>
+      <c r="C131" t="s">
+        <v>832</v>
+      </c>
+      <c r="D131" t="s">
+        <v>749</v>
+      </c>
+      <c r="E131" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" t="s">
+        <v>689</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+      <c r="H131">
+        <v>128</v>
+      </c>
+      <c r="I131" t="s">
+        <v>833</v>
+      </c>
+      <c r="J131" t="s">
+        <v>366</v>
+      </c>
+      <c r="K131" t="s">
         <v>73</v>
       </c>
-      <c r="L131" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N131" s="4">
+      <c r="L131" t="s">
+        <v>82</v>
+      </c>
+      <c r="M131" t="s">
+        <v>696</v>
+      </c>
+      <c r="N131">
         <v>5000</v>
       </c>
-      <c r="O131" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P131" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q131" s="4" t="s">
-        <v>28</v>
+      <c r="O131">
+        <v>2024</v>
+      </c>
+      <c r="P131" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>390</v>
       </c>
       <c r="R131" t="s">
         <v>697</v>
@@ -15693,49 +15669,49 @@
         <v>17</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G132" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H132" s="4">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="N132" s="4">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O132" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="Q132" s="4" t="s">
         <v>28</v>
@@ -15749,49 +15725,49 @@
         <v>17</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G133" s="11">
-        <v>4</v>
+        <v>167</v>
+      </c>
+      <c r="G133" s="10">
+        <v>3</v>
       </c>
       <c r="H133" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="N133" s="4">
         <v>5000</v>
       </c>
       <c r="O133" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="Q133" s="4" t="s">
         <v>28</v>
@@ -15801,52 +15777,52 @@
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="A134" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B134" t="s">
-        <v>308</v>
-      </c>
-      <c r="C134" t="s">
-        <v>309</v>
-      </c>
-      <c r="D134" t="s">
-        <v>700</v>
-      </c>
-      <c r="E134" t="s">
-        <v>310</v>
-      </c>
-      <c r="F134" t="s">
-        <v>277</v>
-      </c>
-      <c r="G134" s="12">
+      <c r="B134" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="11">
         <v>4</v>
       </c>
       <c r="H134" s="4">
-        <v>64</v>
-      </c>
-      <c r="I134" t="s">
+        <v>128</v>
+      </c>
+      <c r="I134" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J134" t="s">
-        <v>306</v>
-      </c>
-      <c r="K134" t="s">
-        <v>33</v>
-      </c>
-      <c r="L134" t="s">
+      <c r="J134" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L134" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M134" t="s">
-        <v>281</v>
-      </c>
-      <c r="N134">
+      <c r="M134" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N134" s="4">
         <v>5000</v>
       </c>
-      <c r="O134">
-        <v>2022</v>
-      </c>
-      <c r="P134" t="s">
+      <c r="O134" s="4">
+        <v>2021</v>
+      </c>
+      <c r="P134" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Q134" s="4" t="s">
@@ -15861,21 +15837,21 @@
         <v>17</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>364</v>
+        <v>255</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>365</v>
+        <v>256</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="11">
         <v>4</v>
       </c>
       <c r="H135" s="4">
@@ -15885,84 +15861,84 @@
         <v>22</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>366</v>
+        <v>257</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="N135" s="4">
         <v>5000</v>
       </c>
       <c r="O135" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P135" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Q135" s="4" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="R135" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" t="s">
         <v>17</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="G136" s="10">
-        <v>6</v>
+      <c r="B136" t="s">
+        <v>308</v>
+      </c>
+      <c r="C136" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" t="s">
+        <v>700</v>
+      </c>
+      <c r="E136" t="s">
+        <v>310</v>
+      </c>
+      <c r="F136" t="s">
+        <v>277</v>
+      </c>
+      <c r="G136" s="12">
+        <v>4</v>
       </c>
       <c r="H136" s="4">
-        <v>256</v>
-      </c>
-      <c r="I136" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I136" t="s">
         <v>22</v>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K136" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M136" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="N136" s="4">
+      <c r="J136" t="s">
+        <v>306</v>
+      </c>
+      <c r="K136" t="s">
+        <v>33</v>
+      </c>
+      <c r="L136" t="s">
+        <v>25</v>
+      </c>
+      <c r="M136" t="s">
+        <v>281</v>
+      </c>
+      <c r="N136">
         <v>5000</v>
       </c>
-      <c r="O136" s="4">
-        <v>2024</v>
-      </c>
-      <c r="P136" s="4" t="s">
-        <v>224</v>
+      <c r="O136">
+        <v>2022</v>
+      </c>
+      <c r="P136" t="s">
+        <v>114</v>
       </c>
       <c r="Q136" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R136" t="s">
         <v>697</v>
@@ -15973,108 +15949,108 @@
         <v>17</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>47</v>
+        <v>363</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>48</v>
+        <v>364</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G137" s="11">
+        <v>39</v>
+      </c>
+      <c r="G137" s="10">
         <v>4</v>
       </c>
       <c r="H137" s="4">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="L137" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="N137" s="4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O137" s="4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="R137" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="A138" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B138" t="s">
-        <v>155</v>
-      </c>
-      <c r="C138" t="s">
-        <v>156</v>
-      </c>
-      <c r="D138" t="s">
-        <v>752</v>
-      </c>
-      <c r="E138" t="s">
-        <v>157</v>
-      </c>
-      <c r="F138" t="s">
-        <v>65</v>
-      </c>
-      <c r="G138" s="12">
+      <c r="B138" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G138" s="10">
         <v>6</v>
       </c>
       <c r="H138" s="4">
-        <v>128</v>
-      </c>
-      <c r="I138" t="s">
+        <v>256</v>
+      </c>
+      <c r="I138" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J138" t="s">
-        <v>158</v>
-      </c>
-      <c r="K138" t="s">
-        <v>159</v>
-      </c>
-      <c r="L138" t="s">
-        <v>25</v>
-      </c>
-      <c r="M138" t="s">
-        <v>160</v>
-      </c>
-      <c r="N138">
+      <c r="J138" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="N138" s="4">
         <v>5000</v>
       </c>
-      <c r="O138">
-        <v>2020</v>
-      </c>
-      <c r="P138" t="s">
-        <v>52</v>
+      <c r="O138" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="Q138" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R138" t="s">
         <v>697</v>
@@ -16085,49 +16061,49 @@
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G139" s="10">
+        <v>32</v>
+      </c>
+      <c r="G139" s="11">
         <v>4</v>
       </c>
       <c r="H139" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L139" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="N139" s="4">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O139" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="Q139" s="4" t="s">
         <v>28</v>
@@ -16137,53 +16113,53 @@
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="A140" t="s">
         <v>17</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F140" s="4" t="s">
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" t="s">
+        <v>752</v>
+      </c>
+      <c r="E140" t="s">
+        <v>157</v>
+      </c>
+      <c r="F140" t="s">
         <v>65</v>
       </c>
-      <c r="G140" s="10">
-        <v>4</v>
+      <c r="G140" s="12">
+        <v>6</v>
       </c>
       <c r="H140" s="4">
         <v>128</v>
       </c>
-      <c r="I140" s="4" t="s">
+      <c r="I140" t="s">
         <v>22</v>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L140" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M140" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N140" s="4">
+      <c r="J140" t="s">
+        <v>158</v>
+      </c>
+      <c r="K140" t="s">
+        <v>159</v>
+      </c>
+      <c r="L140" t="s">
+        <v>25</v>
+      </c>
+      <c r="M140" t="s">
+        <v>160</v>
+      </c>
+      <c r="N140">
         <v>5000</v>
       </c>
-      <c r="O140" s="4">
-        <v>2021</v>
-      </c>
-      <c r="P140" s="4" t="s">
-        <v>114</v>
+      <c r="O140">
+        <v>2020</v>
+      </c>
+      <c r="P140" t="s">
+        <v>52</v>
       </c>
       <c r="Q140" s="4" t="s">
         <v>28</v>
@@ -16197,22 +16173,22 @@
         <v>17</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G141" s="11">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="G141" s="10">
+        <v>4</v>
       </c>
       <c r="H141" s="4">
         <v>128</v>
@@ -16221,25 +16197,25 @@
         <v>22</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="N141" s="4">
         <v>5000</v>
       </c>
       <c r="O141" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q141" s="4" t="s">
         <v>28</v>
@@ -16253,22 +16229,22 @@
         <v>17</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>367</v>
+        <v>214</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="G142" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H142" s="4">
         <v>128</v>
@@ -16277,7 +16253,7 @@
         <v>22</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>371</v>
+        <v>217</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>73</v>
@@ -16286,19 +16262,19 @@
         <v>82</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="N142" s="4">
         <v>5000</v>
       </c>
       <c r="O142" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q142" s="4" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="R142" t="s">
         <v>697</v>
@@ -16309,19 +16285,19 @@
         <v>17</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>698</v>
+        <v>311</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>699</v>
+        <v>312</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>701</v>
+        <v>313</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="G143" s="11">
         <v>6</v>
@@ -16333,7 +16309,7 @@
         <v>22</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>702</v>
+        <v>217</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>73</v>
@@ -16342,19 +16318,19 @@
         <v>82</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>696</v>
+        <v>160</v>
       </c>
       <c r="N143" s="4">
         <v>5000</v>
       </c>
       <c r="O143" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P143" s="4" t="s">
         <v>224</v>
       </c>
       <c r="Q143" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R143" t="s">
         <v>697</v>
@@ -16365,19 +16341,19 @@
         <v>17</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>62</v>
+        <v>367</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>63</v>
+        <v>368</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>64</v>
+        <v>369</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="G144" s="10">
         <v>6</v>
@@ -16389,28 +16365,28 @@
         <v>22</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>66</v>
+        <v>371</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="N144" s="4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O144" s="4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="R144" t="s">
         <v>697</v>
@@ -16421,21 +16397,21 @@
         <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>108</v>
+        <v>698</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>109</v>
+        <v>699</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>110</v>
+        <v>701</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G145" s="10">
+        <v>39</v>
+      </c>
+      <c r="G145" s="11">
         <v>6</v>
       </c>
       <c r="H145" s="4">
@@ -16445,28 +16421,28 @@
         <v>22</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>112</v>
+        <v>702</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>113</v>
+        <v>696</v>
       </c>
       <c r="N145" s="4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O145" s="4">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R145" t="s">
         <v>697</v>
@@ -16477,19 +16453,19 @@
         <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G146" s="10">
         <v>6</v>
@@ -16501,25 +16477,25 @@
         <v>22</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="N146" s="4">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O146" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="Q146" s="4" t="s">
         <v>28</v>
@@ -16533,22 +16509,22 @@
         <v>17</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>710</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="G147" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H147" s="4">
         <v>128</v>
@@ -16557,25 +16533,25 @@
         <v>22</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="N147" s="4">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O147" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q147" s="4" t="s">
         <v>28</v>
@@ -16589,31 +16565,31 @@
         <v>17</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>710</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="G148" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H148" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>88</v>
@@ -16622,16 +16598,16 @@
         <v>82</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="N148" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O148" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q148" s="4" t="s">
         <v>28</v>
@@ -16645,31 +16621,31 @@
         <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>373</v>
+        <v>242</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>374</v>
+        <v>243</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G149" s="11">
+        <v>39</v>
+      </c>
+      <c r="G149" s="10">
         <v>8</v>
       </c>
       <c r="H149" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="K149" s="4" t="s">
         <v>88</v>
@@ -16678,19 +16654,19 @@
         <v>82</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>51</v>
+        <v>245</v>
       </c>
       <c r="N149" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O149" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P149" s="4" t="s">
         <v>224</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="R149" t="s">
         <v>697</v>
@@ -16701,16 +16677,16 @@
         <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>703</v>
+        <v>314</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>704</v>
+        <v>315</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>705</v>
+        <v>313</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>277</v>
@@ -16725,7 +16701,7 @@
         <v>22</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="K150" s="4" t="s">
         <v>88</v>
@@ -16734,19 +16710,19 @@
         <v>82</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>405</v>
+        <v>237</v>
       </c>
       <c r="N150" s="4">
         <v>5000</v>
       </c>
       <c r="O150" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P150" s="4" t="s">
         <v>224</v>
       </c>
       <c r="Q150" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R150" t="s">
         <v>697</v>
@@ -16757,52 +16733,52 @@
         <v>17</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>85</v>
+        <v>373</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="G151" s="11">
         <v>8</v>
       </c>
       <c r="H151" s="4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="N151" s="4">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O151" s="4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="R151" t="s">
         <v>697</v>
@@ -16813,52 +16789,52 @@
         <v>17</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>123</v>
+        <v>703</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>124</v>
+        <v>704</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>91</v>
+        <v>705</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G152" s="11">
+        <v>277</v>
+      </c>
+      <c r="G152" s="10">
         <v>8</v>
       </c>
       <c r="H152" s="4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>83</v>
+        <v>405</v>
       </c>
       <c r="N152" s="4">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O152" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R152" t="s">
         <v>697</v>
@@ -16869,22 +16845,22 @@
         <v>17</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>749</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G153" s="10">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="G153" s="11">
+        <v>8</v>
       </c>
       <c r="H153" s="4">
         <v>128</v>
@@ -16893,7 +16869,7 @@
         <v>22</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="K153" s="4" t="s">
         <v>88</v>
@@ -16902,16 +16878,16 @@
         <v>25</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="N153" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O153" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="Q153" s="4" t="s">
         <v>28</v>
@@ -16921,52 +16897,52 @@
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="A154" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B154" t="s">
-        <v>328</v>
-      </c>
-      <c r="C154" t="s">
-        <v>329</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="B154" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="E154" t="s">
-        <v>276</v>
-      </c>
-      <c r="F154" t="s">
-        <v>277</v>
-      </c>
-      <c r="G154" s="12">
+      <c r="E154" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G154" s="11">
         <v>8</v>
       </c>
       <c r="H154" s="4">
         <v>128</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J154" t="s">
-        <v>330</v>
-      </c>
-      <c r="K154" t="s">
+      <c r="J154" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L154" t="s">
-        <v>82</v>
-      </c>
-      <c r="M154" t="s">
-        <v>57</v>
-      </c>
-      <c r="N154">
-        <v>5000</v>
-      </c>
-      <c r="O154">
-        <v>2022</v>
-      </c>
-      <c r="P154" t="s">
+      <c r="L154" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N154" s="4">
+        <v>4500</v>
+      </c>
+      <c r="O154" s="4">
+        <v>2020</v>
+      </c>
+      <c r="P154" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Q154" s="4" t="s">
@@ -16981,22 +16957,22 @@
         <v>17</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>749</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>92</v>
+        <v>249</v>
       </c>
       <c r="G155" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H155" s="4">
         <v>128</v>
@@ -17005,25 +16981,25 @@
         <v>22</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="N155" s="4">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="O155" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="Q155" s="4" t="s">
         <v>28</v>
@@ -17033,59 +17009,59 @@
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A156" s="4" t="s">
+      <c r="A156" t="s">
         <v>17</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" s="11">
-        <v>3</v>
+      <c r="B156" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" t="s">
+        <v>329</v>
+      </c>
+      <c r="D156" t="s">
+        <v>749</v>
+      </c>
+      <c r="E156" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" t="s">
+        <v>277</v>
+      </c>
+      <c r="G156" s="12">
+        <v>8</v>
       </c>
       <c r="H156" s="4">
-        <v>32</v>
-      </c>
-      <c r="I156" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I156" t="s">
         <v>22</v>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K156" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L156" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M156" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N156" s="4">
-        <v>3400</v>
-      </c>
-      <c r="O156" s="4">
-        <v>2019</v>
-      </c>
-      <c r="P156" s="4" t="s">
-        <v>27</v>
+      <c r="J156" t="s">
+        <v>330</v>
+      </c>
+      <c r="K156" t="s">
+        <v>88</v>
+      </c>
+      <c r="L156" t="s">
+        <v>82</v>
+      </c>
+      <c r="M156" t="s">
+        <v>57</v>
+      </c>
+      <c r="N156">
+        <v>5000</v>
+      </c>
+      <c r="O156">
+        <v>2022</v>
+      </c>
+      <c r="P156" t="s">
+        <v>114</v>
       </c>
       <c r="Q156" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R156" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.3">
@@ -17093,55 +17069,55 @@
         <v>17</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="G157" s="10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H157" s="4">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="N157" s="4">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="O157" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="Q157" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R157" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
@@ -17149,49 +17125,49 @@
         <v>17</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>710</v>
+        <v>764</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="G158" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H158" s="4">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="N158" s="4">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="O158" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="Q158" s="4" t="s">
         <v>28</v>
@@ -17205,31 +17181,31 @@
         <v>17</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>316</v>
+        <v>169</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G159" s="11">
+        <v>167</v>
+      </c>
+      <c r="G159" s="10">
         <v>4</v>
       </c>
       <c r="H159" s="4">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>318</v>
+        <v>171</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>33</v>
@@ -17238,16 +17214,16 @@
         <v>25</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>319</v>
+        <v>107</v>
       </c>
       <c r="N159" s="4">
         <v>5000</v>
       </c>
       <c r="O159" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="Q159" s="4" t="s">
         <v>28</v>
@@ -17261,52 +17237,52 @@
         <v>17</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>707</v>
+        <v>252</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>376</v>
+        <v>253</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G160" s="10">
+        <v>65</v>
+      </c>
+      <c r="G160" s="11">
         <v>4</v>
       </c>
       <c r="H160" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="N160" s="4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O160" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="Q160" s="4" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="R160" t="s">
         <v>706</v>
@@ -17317,21 +17293,21 @@
         <v>17</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>708</v>
+        <v>316</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>709</v>
+        <v>317</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>693</v>
+        <v>174</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="G161" s="10">
+        <v>65</v>
+      </c>
+      <c r="G161" s="11">
         <v>4</v>
       </c>
       <c r="H161" s="4">
@@ -17341,28 +17317,28 @@
         <v>22</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>696</v>
+        <v>319</v>
       </c>
       <c r="N161" s="4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O161" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R161" t="s">
         <v>706</v>
@@ -17372,53 +17348,53 @@
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>29</v>
+      <c r="B162" s="4" t="s">
+        <v>707</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>30</v>
+        <v>376</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>761</v>
+        <v>700</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>31</v>
+        <v>377</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G162" s="11">
+        <v>277</v>
+      </c>
+      <c r="G162" s="10">
         <v>4</v>
       </c>
       <c r="H162" s="4">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N162" s="4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O162" s="4">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="Q162" s="4" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="R162" t="s">
         <v>706</v>
@@ -17429,52 +17405,52 @@
         <v>17</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>197</v>
+        <v>708</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>198</v>
+        <v>709</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>110</v>
+        <v>693</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>111</v>
+        <v>689</v>
       </c>
       <c r="G163" s="10">
         <v>4</v>
       </c>
       <c r="H163" s="4">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>160</v>
+        <v>696</v>
       </c>
       <c r="N163" s="4">
         <v>6000</v>
       </c>
       <c r="O163" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="Q163" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R163" t="s">
         <v>706</v>
@@ -17484,50 +17460,50 @@
       <c r="A164" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>279</v>
+      <c r="B164" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G164" s="10">
+        <v>32</v>
+      </c>
+      <c r="G164" s="11">
         <v>4</v>
       </c>
       <c r="H164" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="N164" s="4">
         <v>5000</v>
       </c>
       <c r="O164" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q164" s="4" t="s">
         <v>28</v>
@@ -17541,49 +17517,49 @@
         <v>17</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>321</v>
+        <v>198</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>243</v>
+        <v>110</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G165" s="11">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="G165" s="10">
+        <v>4</v>
       </c>
       <c r="H165" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>323</v>
+        <v>199</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
       <c r="N165" s="4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O165" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="Q165" s="4" t="s">
         <v>28</v>
@@ -17597,22 +17573,22 @@
         <v>17</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>54</v>
+        <v>280</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G166" s="11">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="G166" s="10">
+        <v>4</v>
       </c>
       <c r="H166" s="4">
         <v>128</v>
@@ -17621,25 +17597,25 @@
         <v>22</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="L166" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="N166" s="4">
         <v>5000</v>
       </c>
       <c r="O166" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q166" s="4" t="s">
         <v>28</v>
@@ -17653,49 +17629,49 @@
         <v>17</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>139</v>
+        <v>320</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>752</v>
+        <v>700</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="G167" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H167" s="4">
         <v>128</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="N167" s="4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O167" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="Q167" s="4" t="s">
         <v>28</v>
@@ -17709,22 +17685,22 @@
         <v>17</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>258</v>
+        <v>53</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>235</v>
+        <v>55</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G168" s="10">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="G168" s="11">
+        <v>8</v>
       </c>
       <c r="H168" s="4">
         <v>128</v>
@@ -17733,25 +17709,25 @@
         <v>22</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="N168" s="4">
         <v>5000</v>
       </c>
       <c r="O168" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="Q168" s="4" t="s">
         <v>28</v>
@@ -17765,52 +17741,52 @@
         <v>17</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>711</v>
+        <v>139</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>712</v>
+        <v>140</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>374</v>
+        <v>110</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G169" s="10">
+        <v>111</v>
+      </c>
+      <c r="G169" s="11">
         <v>8</v>
       </c>
       <c r="H169" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>713</v>
+        <v>142</v>
       </c>
       <c r="N169" s="4">
         <v>6000</v>
       </c>
       <c r="O169" s="4">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="Q169" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R169" t="s">
         <v>706</v>
@@ -17821,21 +17797,21 @@
         <v>17</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G170" s="11">
+        <v>65</v>
+      </c>
+      <c r="G170" s="10">
         <v>6</v>
       </c>
       <c r="H170" s="4">
@@ -17845,25 +17821,25 @@
         <v>22</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="N170" s="4">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O170" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="Q170" s="4" t="s">
         <v>28</v>
@@ -17877,52 +17853,52 @@
         <v>17</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>275</v>
+        <v>711</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="G171" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H171" s="4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>57</v>
+        <v>713</v>
       </c>
       <c r="N171" s="4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O171" s="4">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="Q171" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R171" t="s">
         <v>706</v>
@@ -17933,22 +17909,22 @@
         <v>17</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>324</v>
+        <v>183</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>325</v>
+        <v>184</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>749</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G172" s="10">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="G172" s="11">
+        <v>6</v>
       </c>
       <c r="H172" s="4">
         <v>128</v>
@@ -17957,25 +17933,25 @@
         <v>22</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>327</v>
+        <v>125</v>
       </c>
       <c r="K172" s="4" t="s">
         <v>88</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M172" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N172" s="4">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O172" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="Q172" s="4" t="s">
         <v>28</v>
@@ -17989,31 +17965,31 @@
         <v>17</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>380</v>
+        <v>274</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>749</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>277</v>
       </c>
       <c r="G173" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H173" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I173" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="K173" s="4" t="s">
         <v>88</v>
@@ -18025,16 +18001,16 @@
         <v>57</v>
       </c>
       <c r="N173" s="4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O173" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P173" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Q173" s="4" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="R173" t="s">
         <v>706</v>
@@ -18045,108 +18021,108 @@
         <v>17</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>714</v>
+        <v>324</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>715</v>
+        <v>325</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>671</v>
+        <v>326</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>689</v>
+        <v>277</v>
       </c>
       <c r="G174" s="10">
         <v>8</v>
       </c>
       <c r="H174" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>717</v>
+        <v>88</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>696</v>
+        <v>57</v>
       </c>
       <c r="N174" s="4">
         <v>5000</v>
       </c>
       <c r="O174" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q174" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R174" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+      <c r="A175" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B175" t="s">
-        <v>238</v>
-      </c>
-      <c r="C175" t="s">
-        <v>239</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="B175" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="E175" t="s">
-        <v>240</v>
-      </c>
-      <c r="F175" t="s">
-        <v>97</v>
-      </c>
-      <c r="G175" s="12">
+      <c r="E175" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G175" s="10">
         <v>8</v>
       </c>
       <c r="H175" s="4">
-        <v>128</v>
-      </c>
-      <c r="I175" t="s">
+        <v>256</v>
+      </c>
+      <c r="I175" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J175" t="s">
-        <v>125</v>
-      </c>
-      <c r="K175" t="s">
+      <c r="J175" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L175" t="s">
-        <v>25</v>
-      </c>
-      <c r="M175" t="s">
+      <c r="L175" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M175" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N175">
-        <v>7000</v>
-      </c>
-      <c r="O175">
-        <v>2021</v>
-      </c>
-      <c r="P175" t="s">
-        <v>52</v>
+      <c r="N175" s="4">
+        <v>6000</v>
+      </c>
+      <c r="O175" s="4">
+        <v>2023</v>
+      </c>
+      <c r="P175" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>28</v>
+        <v>340</v>
       </c>
       <c r="R175" t="s">
         <v>706</v>
@@ -18157,19 +18133,19 @@
         <v>17</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>94</v>
+        <v>714</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>95</v>
+        <v>715</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>761</v>
+        <v>716</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>96</v>
+        <v>671</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>97</v>
+        <v>689</v>
       </c>
       <c r="G176" s="10">
         <v>8</v>
@@ -18178,90 +18154,90 @@
         <v>256</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>40</v>
+        <v>323</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>41</v>
+        <v>717</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>98</v>
+        <v>696</v>
       </c>
       <c r="N176" s="4">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="O176" s="4">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R176" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A177" s="4" t="s">
+      <c r="A177" t="s">
         <v>17</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D177" s="4" t="s">
+      <c r="B177" t="s">
+        <v>238</v>
+      </c>
+      <c r="C177" t="s">
+        <v>239</v>
+      </c>
+      <c r="D177" t="s">
         <v>749</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F177" s="4" t="s">
+      <c r="E177" t="s">
+        <v>240</v>
+      </c>
+      <c r="F177" t="s">
         <v>97</v>
       </c>
-      <c r="G177" s="11">
+      <c r="G177" s="12">
         <v>8</v>
       </c>
       <c r="H177" s="4">
         <v>128</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="I177" t="s">
         <v>22</v>
       </c>
-      <c r="J177" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K177" s="4" t="s">
+      <c r="J177" t="s">
+        <v>125</v>
+      </c>
+      <c r="K177" t="s">
         <v>88</v>
       </c>
-      <c r="L177" s="4" t="s">
+      <c r="L177" t="s">
         <v>25</v>
       </c>
-      <c r="M177" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N177" s="4">
-        <v>4500</v>
-      </c>
-      <c r="O177" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P177" s="4" t="s">
-        <v>43</v>
+      <c r="M177" t="s">
+        <v>57</v>
+      </c>
+      <c r="N177">
+        <v>7000</v>
+      </c>
+      <c r="O177">
+        <v>2021</v>
+      </c>
+      <c r="P177" t="s">
+        <v>52</v>
       </c>
       <c r="Q177" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R177" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.3">
@@ -18269,13 +18245,13 @@
         <v>17</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>96</v>
@@ -18283,17 +18259,17 @@
       <c r="F178" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G178" s="11">
-        <v>12</v>
+      <c r="G178" s="10">
+        <v>8</v>
       </c>
       <c r="H178" s="4">
         <v>256</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="K178" s="4" t="s">
         <v>41</v>
@@ -18302,10 +18278,10 @@
         <v>25</v>
       </c>
       <c r="M178" s="4" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="N178" s="4">
-        <v>4300</v>
+        <v>3500</v>
       </c>
       <c r="O178" s="4">
         <v>2019</v>
@@ -18325,49 +18301,49 @@
         <v>17</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>749</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G179" s="10">
+      <c r="G179" s="11">
         <v>8</v>
       </c>
       <c r="H179" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N179" s="4">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="O179" s="4">
         <v>2020</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="Q179" s="4" t="s">
         <v>28</v>
@@ -18381,21 +18357,21 @@
         <v>17</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>719</v>
+        <v>99</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G180" s="10">
+      <c r="G180" s="11">
         <v>12</v>
       </c>
       <c r="H180" s="4">
@@ -18405,25 +18381,25 @@
         <v>22</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="K180" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="N180" s="4">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="O180" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="Q180" s="4" t="s">
         <v>28</v>
@@ -18437,111 +18413,111 @@
         <v>17</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G181" s="10">
         <v>8</v>
       </c>
       <c r="H181" s="4">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="K181" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="N181" s="4">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="O181" s="4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="Q181" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R181" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+      <c r="A182" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B182" t="s">
-        <v>130</v>
-      </c>
-      <c r="C182" t="s">
-        <v>131</v>
-      </c>
-      <c r="D182" t="s">
-        <v>749</v>
-      </c>
-      <c r="E182" t="s">
-        <v>80</v>
-      </c>
-      <c r="F182" t="s">
-        <v>132</v>
-      </c>
-      <c r="G182" s="12">
-        <v>8</v>
+      <c r="B182" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G182" s="10">
+        <v>12</v>
       </c>
       <c r="H182" s="4">
-        <v>128</v>
-      </c>
-      <c r="I182" t="s">
+        <v>256</v>
+      </c>
+      <c r="I182" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J182" t="s">
-        <v>133</v>
-      </c>
-      <c r="K182" t="s">
-        <v>88</v>
-      </c>
-      <c r="L182" t="s">
-        <v>25</v>
-      </c>
-      <c r="M182" t="s">
-        <v>83</v>
-      </c>
-      <c r="N182">
+      <c r="J182" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M182" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="N182" s="4">
         <v>4500</v>
       </c>
-      <c r="O182">
+      <c r="O182" s="4">
         <v>2020</v>
       </c>
-      <c r="P182" t="s">
+      <c r="P182" s="4" t="s">
         <v>114</v>
       </c>
       <c r="Q182" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R182" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.3">
@@ -18549,13 +18525,13 @@
         <v>17</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>38</v>
@@ -18564,10 +18540,10 @@
         <v>39</v>
       </c>
       <c r="G183" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H183" s="4">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>22</v>
@@ -18576,7 +18552,7 @@
         <v>40</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>25</v>
@@ -18585,7 +18561,7 @@
         <v>42</v>
       </c>
       <c r="N183" s="4">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="O183" s="4">
         <v>2019</v>
@@ -18601,53 +18577,53 @@
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A184" s="4" t="s">
+      <c r="A184" t="s">
         <v>17</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="E184" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F184" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G184" s="10">
+      <c r="B184" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" t="s">
+        <v>131</v>
+      </c>
+      <c r="D184" t="s">
+        <v>749</v>
+      </c>
+      <c r="E184" t="s">
+        <v>80</v>
+      </c>
+      <c r="F184" t="s">
+        <v>132</v>
+      </c>
+      <c r="G184" s="12">
         <v>8</v>
       </c>
       <c r="H184" s="4">
-        <v>256</v>
-      </c>
-      <c r="I184" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I184" t="s">
         <v>22</v>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K184" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L184" s="4" t="s">
+      <c r="J184" t="s">
+        <v>133</v>
+      </c>
+      <c r="K184" t="s">
+        <v>88</v>
+      </c>
+      <c r="L184" t="s">
         <v>25</v>
       </c>
-      <c r="M184" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N184" s="4">
-        <v>3100</v>
-      </c>
-      <c r="O184" s="4">
-        <v>2019</v>
-      </c>
-      <c r="P184" s="4" t="s">
-        <v>43</v>
+      <c r="M184" t="s">
+        <v>83</v>
+      </c>
+      <c r="N184">
+        <v>4500</v>
+      </c>
+      <c r="O184">
+        <v>2020</v>
+      </c>
+      <c r="P184" t="s">
+        <v>114</v>
       </c>
       <c r="Q184" s="4" t="s">
         <v>28</v>
@@ -18657,53 +18633,53 @@
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+      <c r="A185" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B185" t="s">
-        <v>143</v>
-      </c>
-      <c r="C185" t="s">
-        <v>144</v>
-      </c>
-      <c r="D185" t="s">
-        <v>748</v>
-      </c>
-      <c r="E185" t="s">
-        <v>145</v>
-      </c>
-      <c r="F185" t="s">
-        <v>97</v>
-      </c>
-      <c r="G185" s="12">
-        <v>8</v>
+      <c r="B185" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G185" s="10">
+        <v>12</v>
       </c>
       <c r="H185" s="4">
-        <v>128</v>
-      </c>
-      <c r="I185" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I185" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J185" t="s">
-        <v>146</v>
-      </c>
-      <c r="K185" t="s">
-        <v>41</v>
-      </c>
-      <c r="L185" t="s">
+      <c r="J185" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L185" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M185" t="s">
-        <v>61</v>
-      </c>
-      <c r="N185">
-        <v>4000</v>
-      </c>
-      <c r="O185">
-        <v>2020</v>
-      </c>
-      <c r="P185" t="s">
-        <v>114</v>
+      <c r="M185" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N185" s="4">
+        <v>4100</v>
+      </c>
+      <c r="O185" s="4">
+        <v>2019</v>
+      </c>
+      <c r="P185" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="Q185" s="4" t="s">
         <v>28</v>
@@ -18717,49 +18693,49 @@
         <v>17</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G186" s="11">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="G186" s="10">
+        <v>8</v>
       </c>
       <c r="H186" s="4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="N186" s="4">
-        <v>4500</v>
+        <v>3100</v>
       </c>
       <c r="O186" s="4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="Q186" s="4" t="s">
         <v>28</v>
@@ -18773,13 +18749,13 @@
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C187" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D187" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E187" t="s">
         <v>145</v>
@@ -18797,7 +18773,7 @@
         <v>22</v>
       </c>
       <c r="J187" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K187" t="s">
         <v>41</v>
@@ -18809,7 +18785,7 @@
         <v>61</v>
       </c>
       <c r="N187">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="O187">
         <v>2020</v>
@@ -18829,43 +18805,43 @@
         <v>17</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>754</v>
+        <v>710</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="G188" s="11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H188" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="N188" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O188" s="4">
         <v>2020</v>
@@ -18881,53 +18857,53 @@
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A189" s="4" t="s">
+      <c r="A189" t="s">
         <v>17</v>
       </c>
-      <c r="B189" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G189" s="10">
+      <c r="B189" t="s">
+        <v>147</v>
+      </c>
+      <c r="C189" t="s">
+        <v>148</v>
+      </c>
+      <c r="D189" t="s">
+        <v>749</v>
+      </c>
+      <c r="E189" t="s">
+        <v>145</v>
+      </c>
+      <c r="F189" t="s">
+        <v>97</v>
+      </c>
+      <c r="G189" s="12">
         <v>8</v>
       </c>
       <c r="H189" s="4">
         <v>128</v>
       </c>
-      <c r="I189" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J189" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="I189" t="s">
+        <v>22</v>
+      </c>
+      <c r="J189" t="s">
+        <v>149</v>
+      </c>
+      <c r="K189" t="s">
         <v>41</v>
       </c>
-      <c r="L189" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M189" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="N189" s="4">
-        <v>4000</v>
-      </c>
-      <c r="O189" s="4">
-        <v>2021</v>
-      </c>
-      <c r="P189" s="4" t="s">
-        <v>224</v>
+      <c r="L189" t="s">
+        <v>25</v>
+      </c>
+      <c r="M189" t="s">
+        <v>61</v>
+      </c>
+      <c r="N189">
+        <v>4500</v>
+      </c>
+      <c r="O189">
+        <v>2020</v>
+      </c>
+      <c r="P189" t="s">
+        <v>114</v>
       </c>
       <c r="Q189" s="4" t="s">
         <v>28</v>
@@ -18941,49 +18917,49 @@
         <v>17</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G190" s="10">
-        <v>6</v>
+        <v>97</v>
+      </c>
+      <c r="G190" s="11">
+        <v>12</v>
       </c>
       <c r="H190" s="4">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>273</v>
+        <v>61</v>
       </c>
       <c r="N190" s="4">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O190" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q190" s="4" t="s">
         <v>28</v>
@@ -18997,13 +18973,13 @@
         <v>17</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>221</v>
@@ -19015,7 +18991,7 @@
         <v>8</v>
       </c>
       <c r="H191" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I191" s="4" t="s">
         <v>182</v>
@@ -19030,10 +19006,10 @@
         <v>82</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N191" s="4">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="O191" s="4">
         <v>2021</v>
@@ -19053,13 +19029,13 @@
         <v>17</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>230</v>
@@ -19068,28 +19044,28 @@
         <v>222</v>
       </c>
       <c r="G192" s="10">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H192" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="N192" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O192" s="4">
         <v>2021</v>
@@ -19109,31 +19085,31 @@
         <v>17</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>292</v>
+        <v>225</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G193" s="11">
+        <v>222</v>
+      </c>
+      <c r="G193" s="10">
         <v>8</v>
       </c>
       <c r="H193" s="4">
         <v>256</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="K193" s="4" t="s">
         <v>41</v>
@@ -19142,13 +19118,13 @@
         <v>82</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N193" s="4">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="O193" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P193" s="4" t="s">
         <v>224</v>
@@ -19165,46 +19141,46 @@
         <v>17</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>297</v>
+        <v>228</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="G194" s="10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H194" s="4">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I194" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>721</v>
+        <v>232</v>
       </c>
       <c r="N194" s="4">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O194" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P194" s="4" t="s">
         <v>224</v>
@@ -19221,13 +19197,13 @@
         <v>17</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>294</v>
@@ -19235,29 +19211,29 @@
       <c r="F195" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G195" s="10">
-        <v>12</v>
+      <c r="G195" s="11">
+        <v>8</v>
       </c>
       <c r="H195" s="4">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="N195" s="4">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="O195" s="4">
         <v>2022</v>
@@ -19277,19 +19253,19 @@
         <v>17</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>751</v>
+        <v>700</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="G196" s="10">
         <v>8</v>
@@ -19304,25 +19280,25 @@
         <v>296</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>273</v>
+        <v>721</v>
       </c>
       <c r="N196" s="4">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="O196" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="P196" s="4" t="s">
         <v>224</v>
       </c>
       <c r="Q196" s="4" t="s">
-        <v>340</v>
+        <v>28</v>
       </c>
       <c r="R196" t="s">
         <v>720</v>
@@ -19333,52 +19309,52 @@
         <v>17</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>383</v>
+        <v>300</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="G197" s="10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H197" s="4">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I197" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>386</v>
+        <v>190</v>
       </c>
       <c r="N197" s="4">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O197" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="P197" s="4" t="s">
         <v>224</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="R197" t="s">
         <v>720</v>
@@ -19389,16 +19365,16 @@
         <v>17</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>700</v>
+        <v>751</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>354</v>
@@ -19407,7 +19383,7 @@
         <v>8</v>
       </c>
       <c r="H198" s="4">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="I198" s="4" t="s">
         <v>182</v>
@@ -19422,10 +19398,10 @@
         <v>82</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="N198" s="4">
-        <v>4700</v>
+        <v>3900</v>
       </c>
       <c r="O198" s="4">
         <v>2023</v>
@@ -19445,43 +19421,43 @@
         <v>17</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>360</v>
+        <v>382</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="G199" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H199" s="4">
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="N199" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O199" s="4">
         <v>2023</v>
@@ -19490,7 +19466,7 @@
         <v>224</v>
       </c>
       <c r="Q199" s="4" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="R199" t="s">
         <v>720</v>
@@ -19501,21 +19477,21 @@
         <v>17</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>748</v>
+        <v>700</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G200" s="11">
+        <v>354</v>
+      </c>
+      <c r="G200" s="10">
         <v>8</v>
       </c>
       <c r="H200" s="4">
@@ -19525,7 +19501,7 @@
         <v>182</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="K200" s="4" t="s">
         <v>355</v>
@@ -19534,75 +19510,75 @@
         <v>82</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>398</v>
+        <v>190</v>
       </c>
       <c r="N200" s="4">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="O200" s="4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="P200" s="4" t="s">
         <v>224</v>
       </c>
       <c r="Q200" s="4" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="R200" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="201" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+      <c r="A201" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B201" t="s">
-        <v>826</v>
-      </c>
-      <c r="C201" t="s">
-        <v>827</v>
-      </c>
-      <c r="D201" t="s">
-        <v>749</v>
-      </c>
-      <c r="E201" t="s">
-        <v>828</v>
-      </c>
-      <c r="F201" t="s">
-        <v>829</v>
-      </c>
-      <c r="G201">
-        <v>8</v>
-      </c>
-      <c r="H201">
-        <v>512</v>
-      </c>
-      <c r="I201" t="s">
+      <c r="B201" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G201" s="10">
+        <v>12</v>
+      </c>
+      <c r="H201" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I201" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J201" t="s">
-        <v>830</v>
-      </c>
-      <c r="K201" t="s">
-        <v>41</v>
-      </c>
-      <c r="L201" t="s">
+      <c r="J201" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="L201" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M201" t="s">
-        <v>696</v>
-      </c>
-      <c r="N201">
-        <v>4700</v>
-      </c>
-      <c r="O201">
-        <v>2024</v>
-      </c>
-      <c r="P201" t="s">
+      <c r="M201" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N201" s="4">
+        <v>5000</v>
+      </c>
+      <c r="O201" s="4">
+        <v>2023</v>
+      </c>
+      <c r="P201" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="Q201" t="s">
-        <v>390</v>
+      <c r="Q201" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="R201" t="s">
         <v>720</v>
@@ -19613,13 +19589,13 @@
         <v>17</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>395</v>
@@ -19627,8 +19603,8 @@
       <c r="F202" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G202" s="10">
-        <v>12</v>
+      <c r="G202" s="11">
+        <v>8</v>
       </c>
       <c r="H202" s="4">
         <v>512</v>
@@ -19649,7 +19625,7 @@
         <v>398</v>
       </c>
       <c r="N202" s="4">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="O202" s="4">
         <v>2024</v>
@@ -19665,56 +19641,56 @@
       </c>
     </row>
     <row r="203" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="4" t="s">
+      <c r="A203" t="s">
         <v>17</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="F203" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G203" s="10">
-        <v>12</v>
-      </c>
-      <c r="H203" s="4">
-        <v>1000</v>
-      </c>
-      <c r="I203" s="4" t="s">
+      <c r="B203" t="s">
+        <v>826</v>
+      </c>
+      <c r="C203" t="s">
+        <v>827</v>
+      </c>
+      <c r="D203" t="s">
+        <v>749</v>
+      </c>
+      <c r="E203" t="s">
+        <v>828</v>
+      </c>
+      <c r="F203" t="s">
+        <v>829</v>
+      </c>
+      <c r="G203">
+        <v>8</v>
+      </c>
+      <c r="H203">
+        <v>512</v>
+      </c>
+      <c r="I203" t="s">
         <v>182</v>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="K203" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="L203" s="4" t="s">
+      <c r="J203" t="s">
+        <v>830</v>
+      </c>
+      <c r="K203" t="s">
+        <v>41</v>
+      </c>
+      <c r="L203" t="s">
         <v>82</v>
       </c>
-      <c r="M203" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="N203" s="4">
-        <v>5000</v>
-      </c>
-      <c r="O203" s="4">
+      <c r="M203" t="s">
+        <v>696</v>
+      </c>
+      <c r="N203">
+        <v>4700</v>
+      </c>
+      <c r="O203">
         <v>2024</v>
       </c>
-      <c r="P203" s="4" t="s">
+      <c r="P203" t="s">
         <v>224</v>
       </c>
-      <c r="Q203" s="4" t="s">
-        <v>378</v>
+      <c r="Q203" t="s">
+        <v>390</v>
       </c>
       <c r="R203" t="s">
         <v>720</v>
@@ -19725,39 +19701,43 @@
         <v>17</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>722</v>
+        <v>399</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>723</v>
+        <v>400</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="11">
-        <v>6</v>
+        <v>749</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G204" s="10">
+        <v>12</v>
       </c>
       <c r="H204" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>717</v>
+        <v>397</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>724</v>
+        <v>398</v>
       </c>
       <c r="N204" s="4">
-        <v>4050</v>
+        <v>4900</v>
       </c>
       <c r="O204" s="4">
         <v>2024</v>
@@ -19769,7 +19749,7 @@
         <v>378</v>
       </c>
       <c r="R204" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="205" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19777,55 +19757,55 @@
         <v>17</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>115</v>
+        <v>401</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>116</v>
+        <v>402</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>110</v>
+        <v>403</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="G205" s="10">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H205" s="4">
-        <v>64</v>
+        <v>1000</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>117</v>
+        <v>404</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>118</v>
+        <v>405</v>
       </c>
       <c r="N205" s="4">
-        <v>4050</v>
+        <v>5000</v>
       </c>
       <c r="O205" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="Q205" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R205" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="206" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19833,55 +19813,51 @@
         <v>17</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>134</v>
+        <v>722</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>135</v>
+        <v>723</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
       <c r="G206" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H206" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>137</v>
+        <v>717</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>138</v>
+        <v>724</v>
       </c>
       <c r="N206" s="4">
-        <v>3300</v>
+        <v>4050</v>
       </c>
       <c r="O206" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P206" s="4" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="Q206" s="4" t="s">
-        <v>28</v>
+        <v>378</v>
       </c>
       <c r="R206" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="207" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19889,55 +19865,55 @@
         <v>17</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>269</v>
+        <v>110</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="G207" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H207" s="4">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="N207" s="4">
-        <v>3300</v>
+        <v>4050</v>
       </c>
       <c r="O207" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="Q207" s="4" t="s">
         <v>28</v>
       </c>
       <c r="R207" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="208" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -19945,28 +19921,28 @@
         <v>17</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>749</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G208" s="10">
+        <v>132</v>
+      </c>
+      <c r="G208" s="11">
         <v>8</v>
       </c>
       <c r="H208" s="4">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>137</v>
@@ -19975,19 +19951,19 @@
         <v>41</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="N208" s="4">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="O208" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q208" s="4" t="s">
         <v>28</v>
@@ -19997,56 +19973,56 @@
       </c>
     </row>
     <row r="209" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+      <c r="A209" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B209" t="s">
-        <v>771</v>
-      </c>
-      <c r="C209" t="s">
-        <v>772</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="B209" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="E209" t="s">
-        <v>403</v>
-      </c>
-      <c r="F209" t="s">
-        <v>222</v>
-      </c>
-      <c r="G209" s="12">
-        <v>12</v>
-      </c>
-      <c r="H209">
-        <v>512</v>
-      </c>
-      <c r="I209" t="s">
+      <c r="E209" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G209" s="10">
+        <v>8</v>
+      </c>
+      <c r="H209" s="4">
+        <v>256</v>
+      </c>
+      <c r="I209" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J209" t="s">
-        <v>773</v>
-      </c>
-      <c r="K209" t="s">
+      <c r="J209" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L209" t="s">
+      <c r="L209" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M209" t="s">
-        <v>398</v>
-      </c>
-      <c r="N209">
-        <v>4000</v>
-      </c>
-      <c r="O209">
-        <v>2024</v>
-      </c>
-      <c r="P209" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>390</v>
+      <c r="M209" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N209" s="4">
+        <v>3300</v>
+      </c>
+      <c r="O209" s="4">
+        <v>2021</v>
+      </c>
+      <c r="P209" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q209" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="R209" t="s">
         <v>726</v>
@@ -20057,31 +20033,31 @@
         <v>17</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>189</v>
+        <v>334</v>
       </c>
       <c r="G210" s="10">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H210" s="4">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I210" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K210" s="4" t="s">
         <v>41</v>
@@ -20090,16 +20066,16 @@
         <v>82</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="N210" s="4">
-        <v>4500</v>
+        <v>3700</v>
       </c>
       <c r="O210" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="Q210" s="4" t="s">
         <v>28</v>
@@ -20109,56 +20085,56 @@
       </c>
     </row>
     <row r="211" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="4" t="s">
+      <c r="A211" t="s">
         <v>17</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G211" s="10">
+      <c r="B211" t="s">
+        <v>771</v>
+      </c>
+      <c r="C211" t="s">
+        <v>772</v>
+      </c>
+      <c r="D211" t="s">
+        <v>749</v>
+      </c>
+      <c r="E211" t="s">
+        <v>403</v>
+      </c>
+      <c r="F211" t="s">
+        <v>222</v>
+      </c>
+      <c r="G211" s="12">
         <v>12</v>
       </c>
-      <c r="H211" s="4">
+      <c r="H211">
         <v>512</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I211" t="s">
         <v>182</v>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K211" s="4" t="s">
+      <c r="J211" t="s">
+        <v>773</v>
+      </c>
+      <c r="K211" t="s">
         <v>41</v>
       </c>
-      <c r="L211" s="4" t="s">
+      <c r="L211" t="s">
         <v>82</v>
       </c>
-      <c r="M211" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="N211" s="4">
-        <v>4400</v>
-      </c>
-      <c r="O211" s="4">
-        <v>2021</v>
-      </c>
-      <c r="P211" s="4" t="s">
+      <c r="M211" t="s">
+        <v>398</v>
+      </c>
+      <c r="N211">
+        <v>4000</v>
+      </c>
+      <c r="O211">
+        <v>2024</v>
+      </c>
+      <c r="P211" t="s">
         <v>224</v>
       </c>
-      <c r="Q211" s="4" t="s">
-        <v>28</v>
+      <c r="Q211" t="s">
+        <v>390</v>
       </c>
       <c r="R211" t="s">
         <v>726</v>
@@ -20169,31 +20145,31 @@
         <v>17</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>757</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="G212" s="10">
         <v>12</v>
       </c>
       <c r="H212" s="4">
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="I212" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="K212" s="4" t="s">
         <v>41</v>
@@ -20205,13 +20181,13 @@
         <v>190</v>
       </c>
       <c r="N212" s="4">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="O212" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P212" s="4" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="Q212" s="4" t="s">
         <v>28</v>
@@ -20225,19 +20201,19 @@
         <v>17</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>727</v>
+        <v>267</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="G213" s="10">
         <v>12</v>
@@ -20246,28 +20222,28 @@
         <v>512</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L213" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="N213" s="4">
-        <v>4235</v>
+        <v>4400</v>
       </c>
       <c r="O213" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="P213" s="4" t="s">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="Q213" s="4" t="s">
         <v>28</v>
@@ -20277,115 +20253,115 @@
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+      <c r="A214" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B214" t="s">
-        <v>774</v>
-      </c>
-      <c r="C214" t="s">
-        <v>775</v>
-      </c>
-      <c r="D214" t="s">
-        <v>776</v>
-      </c>
-      <c r="E214" t="s">
-        <v>403</v>
-      </c>
-      <c r="F214" t="s">
-        <v>222</v>
-      </c>
-      <c r="G214" s="12">
+      <c r="B214" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G214" s="10">
         <v>12</v>
       </c>
-      <c r="H214">
+      <c r="H214" s="4">
         <v>1000</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J214" t="s">
-        <v>397</v>
-      </c>
-      <c r="K214" t="s">
-        <v>777</v>
-      </c>
-      <c r="L214" t="s">
+      <c r="J214" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K214" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L214" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M214" t="s">
-        <v>398</v>
-      </c>
-      <c r="N214">
+      <c r="M214" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="N214" s="4">
         <v>4400</v>
       </c>
-      <c r="O214">
-        <v>2024</v>
-      </c>
-      <c r="P214" t="s">
+      <c r="O214" s="4">
+        <v>2022</v>
+      </c>
+      <c r="P214" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="Q214" t="s">
-        <v>390</v>
+      <c r="Q214" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="R214" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+      <c r="A215" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B215" t="s">
-        <v>831</v>
-      </c>
-      <c r="C215" t="s">
-        <v>832</v>
-      </c>
-      <c r="D215" t="s">
-        <v>749</v>
-      </c>
-      <c r="E215" t="s">
-        <v>377</v>
-      </c>
-      <c r="F215" t="s">
-        <v>689</v>
-      </c>
-      <c r="G215">
-        <v>4</v>
-      </c>
-      <c r="H215">
-        <v>128</v>
-      </c>
-      <c r="I215" t="s">
-        <v>833</v>
-      </c>
-      <c r="J215" t="s">
-        <v>366</v>
-      </c>
-      <c r="K215" t="s">
-        <v>73</v>
-      </c>
-      <c r="L215" t="s">
+      <c r="B215" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G215" s="10">
+        <v>12</v>
+      </c>
+      <c r="H215" s="4">
+        <v>512</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K215" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L215" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M215" t="s">
-        <v>696</v>
-      </c>
-      <c r="N215">
-        <v>5000</v>
-      </c>
-      <c r="O215">
-        <v>2024</v>
-      </c>
-      <c r="P215" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>390</v>
+      <c r="M215" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N215" s="4">
+        <v>4235</v>
+      </c>
+      <c r="O215" s="4">
+        <v>2019</v>
+      </c>
+      <c r="P215" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q215" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="R215" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
     </row>
     <row r="216" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20393,43 +20369,43 @@
         <v>17</v>
       </c>
       <c r="B216" t="s">
-        <v>834</v>
+        <v>774</v>
       </c>
       <c r="C216" t="s">
-        <v>835</v>
+        <v>775</v>
       </c>
       <c r="D216" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="E216" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>689</v>
-      </c>
-      <c r="G216">
-        <v>6</v>
+        <v>222</v>
+      </c>
+      <c r="G216" s="12">
+        <v>12</v>
       </c>
       <c r="H216">
-        <v>256</v>
+        <v>1000</v>
       </c>
       <c r="I216" t="s">
-        <v>833</v>
+        <v>182</v>
       </c>
       <c r="J216" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="K216" t="s">
-        <v>73</v>
+        <v>777</v>
       </c>
       <c r="L216" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="M216" t="s">
-        <v>696</v>
+        <v>398</v>
       </c>
       <c r="N216">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="O216">
         <v>2024</v>
@@ -20441,7 +20417,7 @@
         <v>390</v>
       </c>
       <c r="R216" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.3">
@@ -20602,52 +20578,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q2:Q211">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q214">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Sucessor recém lançado">
+  <conditionalFormatting sqref="Q2:Q216">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q212:Q214">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Descontinuado">
+  <conditionalFormatting sqref="Q212:Q216">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q212))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q212))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q217:Q268">
-    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q217)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q217:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="0" priority="18" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q215:Q216">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
-      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q215))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q215:Q216">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q215))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q215:Q216">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q215))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
